--- a/app/data/static/templates/constructor_milkproject.xlsx
+++ b/app/data/static/templates/constructor_milkproject.xlsx
@@ -11,7 +11,7 @@
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="планирование суточное" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="План варок" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="SKU Масло" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="SKU Милкпроджект" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Water_SKU" vbProcedure="false">#REF!</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">Выход с одной варки, кг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Процент</t>
   </si>
   <si>
     <t xml:space="preserve">Группа</t>
@@ -156,13 +159,13 @@
       <sz val="7"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="7"/>
@@ -596,7 +599,7 @@
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -608,16 +611,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="43.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="10" width="5.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="10" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="9" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="14" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="16" min="16" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="10" width="5.76"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="10" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -626,24 +629,24 @@
         <v>14</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="12"/>
       <c r="I1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -659,16 +662,16 @@
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="14" t="n">
         <v>0</v>
@@ -679,10 +682,13 @@
     </row>
     <row r="3" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="17" t="str">
-        <f aca="false">IF(E3="","",VLOOKUP(E3, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C3" s="17"/>
+        <f aca="false">IF(E3="","",VLOOKUP(E3, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f aca="false">IF(E3="","",VLOOKUP(E3, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D3" s="17"/>
       <c r="F3" s="18"/>
       <c r="G3" s="19" t="str">
@@ -690,11 +696,11 @@
         <v/>
       </c>
       <c r="H3" s="17" t="str">
-        <f aca="true">IF(I3 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I3 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J3" s="20" t="n">
-        <f aca="true">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1),F3)</f>
+        <f aca="true">IF(I3 = "-", -INDIRECT("B" &amp; ROW() - 1),F3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="16" t="n">
@@ -723,19 +729,25 @@
     </row>
     <row r="4" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="17" t="str">
-        <f aca="false">IF(E4="","",VLOOKUP(E4, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C4" s="17"/>
+        <f aca="false">IF(E4="","",VLOOKUP(E4, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C4" s="17" t="str">
+        <f aca="false">IF(E4="","",VLOOKUP(E4, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D4" s="17"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19" t="str">
         <f aca="true">IF(I4="","",(INDIRECT("M" &amp; ROW() - 1) - M4))</f>
         <v/>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="17" t="str">
+        <f aca="true">IF(I4 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
+        <v/>
+      </c>
       <c r="J4" s="20" t="n">
-        <f aca="true">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1),F4)</f>
+        <f aca="true">IF(I4 = "-", -INDIRECT("B" &amp; ROW() - 1),F4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="16" t="n">
@@ -763,10 +775,13 @@
     </row>
     <row r="5" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="str">
-        <f aca="false">IF(E5="","",VLOOKUP(E5, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C5" s="17"/>
+        <f aca="false">IF(E5="","",VLOOKUP(E5, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C5" s="17" t="str">
+        <f aca="false">IF(E5="","",VLOOKUP(E5, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D5" s="17"/>
       <c r="F5" s="18"/>
       <c r="G5" s="19" t="str">
@@ -774,11 +789,11 @@
         <v/>
       </c>
       <c r="H5" s="17" t="str">
-        <f aca="true">IF(I5 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I5 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J5" s="20" t="n">
-        <f aca="true">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1),F5)</f>
+        <f aca="true">IF(I5 = "-", -INDIRECT("B" &amp; ROW() - 1),F5)</f>
         <v>0</v>
       </c>
       <c r="K5" s="16" t="n">
@@ -806,10 +821,13 @@
     </row>
     <row r="6" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="str">
-        <f aca="false">IF(E6="","",VLOOKUP(E6, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C6" s="17"/>
+        <f aca="false">IF(E6="","",VLOOKUP(E6, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C6" s="17" t="str">
+        <f aca="false">IF(E6="","",VLOOKUP(E6, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D6" s="17"/>
       <c r="F6" s="18"/>
       <c r="G6" s="19" t="str">
@@ -817,11 +835,11 @@
         <v/>
       </c>
       <c r="H6" s="17" t="str">
-        <f aca="true">IF(I6 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I6 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J6" s="20" t="n">
-        <f aca="true">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1),F6)</f>
+        <f aca="true">IF(I6 = "-", -INDIRECT("B" &amp; ROW() - 1),F6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="16" t="n">
@@ -849,10 +867,13 @@
     </row>
     <row r="7" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="17" t="str">
-        <f aca="false">IF(E7="","",VLOOKUP(E7, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C7" s="17"/>
+        <f aca="false">IF(E7="","",VLOOKUP(E7, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C7" s="17" t="str">
+        <f aca="false">IF(E7="","",VLOOKUP(E7, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D7" s="17"/>
       <c r="F7" s="18"/>
       <c r="G7" s="19" t="str">
@@ -860,11 +881,11 @@
         <v/>
       </c>
       <c r="H7" s="17" t="str">
-        <f aca="true">IF(I7 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I7 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J7" s="20" t="n">
-        <f aca="true">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1),F7)</f>
+        <f aca="true">IF(I7 = "-", -INDIRECT("B" &amp; ROW() - 1),F7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="16" t="n">
@@ -892,10 +913,13 @@
     </row>
     <row r="8" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="17" t="str">
-        <f aca="false">IF(E8="","",VLOOKUP(E8, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C8" s="17"/>
+        <f aca="false">IF(E8="","",VLOOKUP(E8, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f aca="false">IF(E8="","",VLOOKUP(E8, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D8" s="17"/>
       <c r="F8" s="18"/>
       <c r="G8" s="19" t="str">
@@ -903,11 +927,11 @@
         <v/>
       </c>
       <c r="H8" s="17" t="str">
-        <f aca="true">IF(I8 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I8 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J8" s="20" t="n">
-        <f aca="true">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1),F8)</f>
+        <f aca="true">IF(I8 = "-", -INDIRECT("B" &amp; ROW() - 1),F8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="16" t="n">
@@ -935,10 +959,13 @@
     </row>
     <row r="9" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="17" t="str">
-        <f aca="false">IF(E9="","",VLOOKUP(E9, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C9" s="17"/>
+        <f aca="false">IF(E9="","",VLOOKUP(E9, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C9" s="17" t="str">
+        <f aca="false">IF(E9="","",VLOOKUP(E9, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D9" s="17"/>
       <c r="F9" s="18"/>
       <c r="G9" s="19" t="str">
@@ -946,11 +973,11 @@
         <v/>
       </c>
       <c r="H9" s="17" t="str">
-        <f aca="true">IF(I9 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I9 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J9" s="20" t="n">
-        <f aca="true">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1),F9)</f>
+        <f aca="true">IF(I9 = "-", -INDIRECT("B" &amp; ROW() - 1),F9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="16" t="n">
@@ -978,10 +1005,13 @@
     </row>
     <row r="10" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="17" t="str">
-        <f aca="false">IF(E10="","",VLOOKUP(E10, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C10" s="17"/>
+        <f aca="false">IF(E10="","",VLOOKUP(E10, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C10" s="17" t="str">
+        <f aca="false">IF(E10="","",VLOOKUP(E10, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D10" s="17"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19" t="str">
@@ -989,11 +1019,11 @@
         <v/>
       </c>
       <c r="H10" s="17" t="str">
-        <f aca="true">IF(I10 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I10 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J10" s="20" t="n">
-        <f aca="true">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1),F10)</f>
+        <f aca="true">IF(I10 = "-", -INDIRECT("B" &amp; ROW() - 1),F10)</f>
         <v>0</v>
       </c>
       <c r="K10" s="16" t="n">
@@ -1021,10 +1051,13 @@
     </row>
     <row r="11" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="str">
-        <f aca="false">IF(E11="","",VLOOKUP(E11, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C11" s="17"/>
+        <f aca="false">IF(E11="","",VLOOKUP(E11, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="17" t="str">
+        <f aca="false">IF(E11="","",VLOOKUP(E11, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D11" s="17"/>
       <c r="F11" s="18"/>
       <c r="G11" s="19" t="str">
@@ -1032,11 +1065,11 @@
         <v/>
       </c>
       <c r="H11" s="17" t="str">
-        <f aca="true">IF(I11 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I11 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J11" s="20" t="n">
-        <f aca="true">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1),F11)</f>
+        <f aca="true">IF(I11 = "-", -INDIRECT("B" &amp; ROW() - 1),F11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="16" t="n">
@@ -1064,10 +1097,13 @@
     </row>
     <row r="12" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="str">
-        <f aca="false">IF(E12="","",VLOOKUP(E12, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C12" s="17"/>
+        <f aca="false">IF(E12="","",VLOOKUP(E12, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C12" s="17" t="str">
+        <f aca="false">IF(E12="","",VLOOKUP(E12, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D12" s="17"/>
       <c r="F12" s="18"/>
       <c r="G12" s="19" t="str">
@@ -1075,11 +1111,11 @@
         <v/>
       </c>
       <c r="H12" s="17" t="str">
-        <f aca="true">IF(I12 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I12 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J12" s="20" t="n">
-        <f aca="true">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1),F12)</f>
+        <f aca="true">IF(I12 = "-", -INDIRECT("B" &amp; ROW() - 1),F12)</f>
         <v>0</v>
       </c>
       <c r="K12" s="16" t="n">
@@ -1107,10 +1143,13 @@
     </row>
     <row r="13" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="17" t="str">
-        <f aca="false">IF(E13="","",VLOOKUP(E13, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C13" s="17"/>
+        <f aca="false">IF(E13="","",VLOOKUP(E13, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C13" s="17" t="str">
+        <f aca="false">IF(E13="","",VLOOKUP(E13, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D13" s="17"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19" t="str">
@@ -1118,11 +1157,11 @@
         <v/>
       </c>
       <c r="H13" s="17" t="str">
-        <f aca="true">IF(I13 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I13 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J13" s="20" t="n">
-        <f aca="true">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1),F13)</f>
+        <f aca="true">IF(I13 = "-", -INDIRECT("B" &amp; ROW() - 1),F13)</f>
         <v>0</v>
       </c>
       <c r="K13" s="16" t="n">
@@ -1150,10 +1189,13 @@
     </row>
     <row r="14" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="str">
-        <f aca="false">IF(E14="","",VLOOKUP(E14, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C14" s="17"/>
+        <f aca="false">IF(E14="","",VLOOKUP(E14, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C14" s="17" t="str">
+        <f aca="false">IF(E14="","",VLOOKUP(E14, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D14" s="17"/>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="str">
@@ -1161,11 +1203,11 @@
         <v/>
       </c>
       <c r="H14" s="17" t="str">
-        <f aca="true">IF(I14 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I14 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J14" s="20" t="n">
-        <f aca="true">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1),F14)</f>
+        <f aca="true">IF(I14 = "-", -INDIRECT("B" &amp; ROW() - 1),F14)</f>
         <v>0</v>
       </c>
       <c r="K14" s="16" t="n">
@@ -1193,10 +1235,13 @@
     </row>
     <row r="15" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="17" t="str">
-        <f aca="false">IF(E15="","",VLOOKUP(E15, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C15" s="17"/>
+        <f aca="false">IF(E15="","",VLOOKUP(E15, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C15" s="17" t="str">
+        <f aca="false">IF(E15="","",VLOOKUP(E15, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D15" s="17"/>
       <c r="F15" s="18"/>
       <c r="G15" s="19" t="str">
@@ -1204,11 +1249,11 @@
         <v/>
       </c>
       <c r="H15" s="17" t="str">
-        <f aca="true">IF(I15 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I15 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J15" s="20" t="n">
-        <f aca="true">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1),F15)</f>
+        <f aca="true">IF(I15 = "-", -INDIRECT("B" &amp; ROW() - 1),F15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="16" t="n">
@@ -1236,10 +1281,13 @@
     </row>
     <row r="16" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="17" t="str">
-        <f aca="false">IF(E16="","",VLOOKUP(E16, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C16" s="17"/>
+        <f aca="false">IF(E16="","",VLOOKUP(E16, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C16" s="17" t="str">
+        <f aca="false">IF(E16="","",VLOOKUP(E16, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D16" s="17"/>
       <c r="F16" s="18"/>
       <c r="G16" s="19" t="str">
@@ -1247,11 +1295,11 @@
         <v/>
       </c>
       <c r="H16" s="17" t="str">
-        <f aca="true">IF(I16 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I16 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J16" s="20" t="n">
-        <f aca="true">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1),F16)</f>
+        <f aca="true">IF(I16 = "-", -INDIRECT("B" &amp; ROW() - 1),F16)</f>
         <v>0</v>
       </c>
       <c r="K16" s="16" t="n">
@@ -1279,10 +1327,13 @@
     </row>
     <row r="17" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="17" t="str">
-        <f aca="false">IF(E17="","",VLOOKUP(E17, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C17" s="17"/>
+        <f aca="false">IF(E17="","",VLOOKUP(E17, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C17" s="17" t="str">
+        <f aca="false">IF(E17="","",VLOOKUP(E17, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D17" s="17"/>
       <c r="F17" s="18"/>
       <c r="G17" s="19" t="str">
@@ -1290,11 +1341,11 @@
         <v/>
       </c>
       <c r="H17" s="17" t="str">
-        <f aca="true">IF(I17 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I17 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J17" s="20" t="n">
-        <f aca="true">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1),F17)</f>
+        <f aca="true">IF(I17 = "-", -INDIRECT("B" &amp; ROW() - 1),F17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="16" t="n">
@@ -1322,10 +1373,13 @@
     </row>
     <row r="18" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="str">
-        <f aca="false">IF(E18="","",VLOOKUP(E18, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C18" s="17"/>
+        <f aca="false">IF(E18="","",VLOOKUP(E18, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C18" s="17" t="str">
+        <f aca="false">IF(E18="","",VLOOKUP(E18, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D18" s="17"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19" t="str">
@@ -1333,11 +1387,11 @@
         <v/>
       </c>
       <c r="H18" s="17" t="str">
-        <f aca="true">IF(I18 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I18 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J18" s="20" t="n">
-        <f aca="true">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1),F18)</f>
+        <f aca="true">IF(I18 = "-", -INDIRECT("B" &amp; ROW() - 1),F18)</f>
         <v>0</v>
       </c>
       <c r="K18" s="16" t="n">
@@ -1365,10 +1419,13 @@
     </row>
     <row r="19" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="17" t="str">
-        <f aca="false">IF(E19="","",VLOOKUP(E19, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C19" s="17"/>
+        <f aca="false">IF(E19="","",VLOOKUP(E19, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C19" s="17" t="str">
+        <f aca="false">IF(E19="","",VLOOKUP(E19, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D19" s="17"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19" t="str">
@@ -1376,11 +1433,11 @@
         <v/>
       </c>
       <c r="H19" s="17" t="str">
-        <f aca="true">IF(I19 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I19 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J19" s="20" t="n">
-        <f aca="true">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1),F19)</f>
+        <f aca="true">IF(I19 = "-", -INDIRECT("B" &amp; ROW() - 1),F19)</f>
         <v>0</v>
       </c>
       <c r="K19" s="16" t="n">
@@ -1408,10 +1465,13 @@
     </row>
     <row r="20" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="17" t="str">
-        <f aca="false">IF(E20="","",VLOOKUP(E20, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C20" s="17"/>
+        <f aca="false">IF(E20="","",VLOOKUP(E20, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C20" s="17" t="str">
+        <f aca="false">IF(E20="","",VLOOKUP(E20, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="19" t="str">
@@ -1419,11 +1479,11 @@
         <v/>
       </c>
       <c r="H20" s="17" t="str">
-        <f aca="true">IF(I20 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I20 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J20" s="20" t="n">
-        <f aca="true">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1),F20)</f>
+        <f aca="true">IF(I20 = "-", -INDIRECT("B" &amp; ROW() - 1),F20)</f>
         <v>0</v>
       </c>
       <c r="K20" s="16" t="n">
@@ -1451,10 +1511,13 @@
     </row>
     <row r="21" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="17" t="str">
-        <f aca="false">IF(E21="","",VLOOKUP(E21, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C21" s="17"/>
+        <f aca="false">IF(E21="","",VLOOKUP(E21, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C21" s="17" t="str">
+        <f aca="false">IF(E21="","",VLOOKUP(E21, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D21" s="17"/>
       <c r="F21" s="18"/>
       <c r="G21" s="19" t="str">
@@ -1462,11 +1525,11 @@
         <v/>
       </c>
       <c r="H21" s="17" t="str">
-        <f aca="true">IF(I21 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I21 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J21" s="20" t="n">
-        <f aca="true">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1),F21)</f>
+        <f aca="true">IF(I21 = "-", -INDIRECT("B" &amp; ROW() - 1),F21)</f>
         <v>0</v>
       </c>
       <c r="K21" s="16" t="n">
@@ -1494,10 +1557,13 @@
     </row>
     <row r="22" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="17" t="str">
-        <f aca="false">IF(E22="","",VLOOKUP(E22, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C22" s="17"/>
+        <f aca="false">IF(E22="","",VLOOKUP(E22, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C22" s="17" t="str">
+        <f aca="false">IF(E22="","",VLOOKUP(E22, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D22" s="17"/>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="str">
@@ -1505,11 +1571,11 @@
         <v/>
       </c>
       <c r="H22" s="17" t="str">
-        <f aca="true">IF(I22 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I22 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J22" s="20" t="n">
-        <f aca="true">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1),F22)</f>
+        <f aca="true">IF(I22 = "-", -INDIRECT("B" &amp; ROW() - 1),F22)</f>
         <v>0</v>
       </c>
       <c r="K22" s="16" t="n">
@@ -1537,10 +1603,13 @@
     </row>
     <row r="23" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="17" t="str">
-        <f aca="false">IF(E23="","",VLOOKUP(E23, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C23" s="17"/>
+        <f aca="false">IF(E23="","",VLOOKUP(E23, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C23" s="17" t="str">
+        <f aca="false">IF(E23="","",VLOOKUP(E23, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D23" s="17"/>
       <c r="F23" s="18"/>
       <c r="G23" s="19" t="str">
@@ -1548,11 +1617,11 @@
         <v/>
       </c>
       <c r="H23" s="17" t="str">
-        <f aca="true">IF(I23 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I23 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J23" s="20" t="n">
-        <f aca="true">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1),F23)</f>
+        <f aca="true">IF(I23 = "-", -INDIRECT("B" &amp; ROW() - 1),F23)</f>
         <v>0</v>
       </c>
       <c r="K23" s="16" t="n">
@@ -1580,10 +1649,13 @@
     </row>
     <row r="24" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="17" t="str">
-        <f aca="false">IF(E24="","",VLOOKUP(E24, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C24" s="17"/>
+        <f aca="false">IF(E24="","",VLOOKUP(E24, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C24" s="17" t="str">
+        <f aca="false">IF(E24="","",VLOOKUP(E24, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D24" s="17"/>
       <c r="F24" s="18"/>
       <c r="G24" s="19" t="str">
@@ -1591,11 +1663,11 @@
         <v/>
       </c>
       <c r="H24" s="17" t="str">
-        <f aca="true">IF(I24 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I24 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J24" s="20" t="n">
-        <f aca="true">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1),F24)</f>
+        <f aca="true">IF(I24 = "-", -INDIRECT("B" &amp; ROW() - 1),F24)</f>
         <v>0</v>
       </c>
       <c r="K24" s="16" t="n">
@@ -1623,10 +1695,13 @@
     </row>
     <row r="25" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="17" t="str">
-        <f aca="false">IF(E25="","",VLOOKUP(E25, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C25" s="17"/>
+        <f aca="false">IF(E25="","",VLOOKUP(E25, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C25" s="17" t="str">
+        <f aca="false">IF(E25="","",VLOOKUP(E25, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D25" s="17"/>
       <c r="F25" s="18"/>
       <c r="G25" s="19" t="str">
@@ -1634,11 +1709,11 @@
         <v/>
       </c>
       <c r="H25" s="17" t="str">
-        <f aca="true">IF(I25 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I25 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J25" s="20" t="n">
-        <f aca="true">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1),F25)</f>
+        <f aca="true">IF(I25 = "-", -INDIRECT("B" &amp; ROW() - 1),F25)</f>
         <v>0</v>
       </c>
       <c r="K25" s="16" t="n">
@@ -1666,10 +1741,13 @@
     </row>
     <row r="26" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="17" t="str">
-        <f aca="false">IF(E26="","",VLOOKUP(E26, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C26" s="17"/>
+        <f aca="false">IF(E26="","",VLOOKUP(E26, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C26" s="17" t="str">
+        <f aca="false">IF(E26="","",VLOOKUP(E26, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D26" s="17"/>
       <c r="F26" s="18"/>
       <c r="G26" s="19" t="str">
@@ -1677,11 +1755,11 @@
         <v/>
       </c>
       <c r="H26" s="17" t="str">
-        <f aca="true">IF(I26 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I26 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J26" s="20" t="n">
-        <f aca="true">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1),F26)</f>
+        <f aca="true">IF(I26 = "-", -INDIRECT("B" &amp; ROW() - 1),F26)</f>
         <v>0</v>
       </c>
       <c r="K26" s="16" t="n">
@@ -1709,10 +1787,13 @@
     </row>
     <row r="27" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="17" t="str">
-        <f aca="false">IF(E27="","",VLOOKUP(E27, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C27" s="17"/>
+        <f aca="false">IF(E27="","",VLOOKUP(E27, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C27" s="17" t="str">
+        <f aca="false">IF(E27="","",VLOOKUP(E27, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D27" s="17"/>
       <c r="F27" s="18"/>
       <c r="G27" s="19" t="str">
@@ -1720,11 +1801,11 @@
         <v/>
       </c>
       <c r="H27" s="17" t="str">
-        <f aca="true">IF(I27 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I27 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J27" s="20" t="n">
-        <f aca="true">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1),F27)</f>
+        <f aca="true">IF(I27 = "-", -INDIRECT("B" &amp; ROW() - 1),F27)</f>
         <v>0</v>
       </c>
       <c r="K27" s="16" t="n">
@@ -1752,10 +1833,13 @@
     </row>
     <row r="28" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="17" t="str">
-        <f aca="false">IF(E28="","",VLOOKUP(E28, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C28" s="17"/>
+        <f aca="false">IF(E28="","",VLOOKUP(E28, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C28" s="17" t="str">
+        <f aca="false">IF(E28="","",VLOOKUP(E28, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D28" s="17"/>
       <c r="F28" s="18"/>
       <c r="G28" s="19" t="str">
@@ -1763,11 +1847,11 @@
         <v/>
       </c>
       <c r="H28" s="17" t="str">
-        <f aca="true">IF(I28 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I28 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J28" s="20" t="n">
-        <f aca="true">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1),F28)</f>
+        <f aca="true">IF(I28 = "-", -INDIRECT("B" &amp; ROW() - 1),F28)</f>
         <v>0</v>
       </c>
       <c r="K28" s="16" t="n">
@@ -1795,10 +1879,13 @@
     </row>
     <row r="29" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="17" t="str">
-        <f aca="false">IF(E29="","",VLOOKUP(E29, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C29" s="0"/>
+        <f aca="false">IF(E29="","",VLOOKUP(E29, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C29" s="17" t="str">
+        <f aca="false">IF(E29="","",VLOOKUP(E29, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D29" s="0"/>
       <c r="F29" s="18"/>
       <c r="G29" s="19" t="str">
@@ -1806,11 +1893,11 @@
         <v/>
       </c>
       <c r="H29" s="17" t="str">
-        <f aca="true">IF(I29 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I29 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J29" s="20" t="n">
-        <f aca="true">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1),F29)</f>
+        <f aca="true">IF(I29 = "-", -INDIRECT("B" &amp; ROW() - 1),F29)</f>
         <v>0</v>
       </c>
       <c r="K29" s="16" t="n">
@@ -1838,10 +1925,13 @@
     </row>
     <row r="30" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="str">
-        <f aca="false">IF(E30="","",VLOOKUP(E30, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C30" s="0"/>
+        <f aca="false">IF(E30="","",VLOOKUP(E30, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C30" s="17" t="str">
+        <f aca="false">IF(E30="","",VLOOKUP(E30, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D30" s="0"/>
       <c r="F30" s="18"/>
       <c r="G30" s="19" t="str">
@@ -1849,11 +1939,11 @@
         <v/>
       </c>
       <c r="H30" s="17" t="str">
-        <f aca="true">IF(I30 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I30 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J30" s="20" t="n">
-        <f aca="true">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1),F30)</f>
+        <f aca="true">IF(I30 = "-", -INDIRECT("B" &amp; ROW() - 1),F30)</f>
         <v>0</v>
       </c>
       <c r="K30" s="16" t="n">
@@ -1881,10 +1971,13 @@
     </row>
     <row r="31" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="17" t="str">
-        <f aca="false">IF(E31="","",VLOOKUP(E31, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C31" s="0"/>
+        <f aca="false">IF(E31="","",VLOOKUP(E31, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C31" s="17" t="str">
+        <f aca="false">IF(E31="","",VLOOKUP(E31, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D31" s="0"/>
       <c r="F31" s="18"/>
       <c r="G31" s="19" t="str">
@@ -1892,11 +1985,11 @@
         <v/>
       </c>
       <c r="H31" s="17" t="str">
-        <f aca="true">IF(I31 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I31 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J31" s="20" t="n">
-        <f aca="true">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1),F31)</f>
+        <f aca="true">IF(I31 = "-", -INDIRECT("B" &amp; ROW() - 1),F31)</f>
         <v>0</v>
       </c>
       <c r="K31" s="16" t="n">
@@ -1924,10 +2017,13 @@
     </row>
     <row r="32" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="17" t="str">
-        <f aca="false">IF(E32="","",VLOOKUP(E32, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C32" s="0"/>
+        <f aca="false">IF(E32="","",VLOOKUP(E32, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C32" s="17" t="str">
+        <f aca="false">IF(E32="","",VLOOKUP(E32, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D32" s="0"/>
       <c r="F32" s="18"/>
       <c r="G32" s="19" t="str">
@@ -1935,11 +2031,11 @@
         <v/>
       </c>
       <c r="H32" s="17" t="str">
-        <f aca="true">IF(I32 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I32 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J32" s="20" t="n">
-        <f aca="true">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1),F32)</f>
+        <f aca="true">IF(I32 = "-", -INDIRECT("B" &amp; ROW() - 1),F32)</f>
         <v>0</v>
       </c>
       <c r="K32" s="16" t="n">
@@ -1967,10 +2063,13 @@
     </row>
     <row r="33" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="17" t="str">
-        <f aca="false">IF(E33="","",VLOOKUP(E33, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C33" s="0"/>
+        <f aca="false">IF(E33="","",VLOOKUP(E33, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C33" s="17" t="str">
+        <f aca="false">IF(E33="","",VLOOKUP(E33, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D33" s="0"/>
       <c r="F33" s="18"/>
       <c r="G33" s="19" t="str">
@@ -1978,11 +2077,11 @@
         <v/>
       </c>
       <c r="H33" s="17" t="str">
-        <f aca="true">IF(I33 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I33 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J33" s="20" t="n">
-        <f aca="true">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1),F33)</f>
+        <f aca="true">IF(I33 = "-", -INDIRECT("B" &amp; ROW() - 1),F33)</f>
         <v>0</v>
       </c>
       <c r="K33" s="16" t="n">
@@ -2010,10 +2109,13 @@
     </row>
     <row r="34" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="17" t="str">
-        <f aca="false">IF(E34="","",VLOOKUP(E34, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C34" s="0"/>
+        <f aca="false">IF(E34="","",VLOOKUP(E34, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C34" s="17" t="str">
+        <f aca="false">IF(E34="","",VLOOKUP(E34, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D34" s="0"/>
       <c r="F34" s="18"/>
       <c r="G34" s="19" t="str">
@@ -2021,11 +2123,11 @@
         <v/>
       </c>
       <c r="H34" s="17" t="str">
-        <f aca="true">IF(I34 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I34 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J34" s="20" t="n">
-        <f aca="true">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1),F34)</f>
+        <f aca="true">IF(I34 = "-", -INDIRECT("B" &amp; ROW() - 1),F34)</f>
         <v>0</v>
       </c>
       <c r="K34" s="16" t="n">
@@ -2053,10 +2155,13 @@
     </row>
     <row r="35" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="17" t="str">
-        <f aca="false">IF(E35="","",VLOOKUP(E35, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C35" s="0"/>
+        <f aca="false">IF(E35="","",VLOOKUP(E35, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C35" s="17" t="str">
+        <f aca="false">IF(E35="","",VLOOKUP(E35, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D35" s="0"/>
       <c r="F35" s="18"/>
       <c r="G35" s="19" t="str">
@@ -2064,11 +2169,11 @@
         <v/>
       </c>
       <c r="H35" s="17" t="str">
-        <f aca="true">IF(I35 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I35 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J35" s="20" t="n">
-        <f aca="true">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1),F35)</f>
+        <f aca="true">IF(I35 = "-", -INDIRECT("B" &amp; ROW() - 1),F35)</f>
         <v>0</v>
       </c>
       <c r="K35" s="16" t="n">
@@ -2096,10 +2201,13 @@
     </row>
     <row r="36" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="17" t="str">
-        <f aca="false">IF(E36="","",VLOOKUP(E36, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C36" s="0"/>
+        <f aca="false">IF(E36="","",VLOOKUP(E36, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C36" s="17" t="str">
+        <f aca="false">IF(E36="","",VLOOKUP(E36, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D36" s="0"/>
       <c r="F36" s="18"/>
       <c r="G36" s="19" t="str">
@@ -2107,11 +2215,11 @@
         <v/>
       </c>
       <c r="H36" s="17" t="str">
-        <f aca="true">IF(I36 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I36 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J36" s="20" t="n">
-        <f aca="true">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1),F36)</f>
+        <f aca="true">IF(I36 = "-", -INDIRECT("B" &amp; ROW() - 1),F36)</f>
         <v>0</v>
       </c>
       <c r="K36" s="16" t="n">
@@ -2139,10 +2247,13 @@
     </row>
     <row r="37" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="17" t="str">
-        <f aca="false">IF(E37="","",VLOOKUP(E37, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C37" s="0"/>
+        <f aca="false">IF(E37="","",VLOOKUP(E37, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C37" s="17" t="str">
+        <f aca="false">IF(E37="","",VLOOKUP(E37, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D37" s="0"/>
       <c r="F37" s="18"/>
       <c r="G37" s="19" t="str">
@@ -2150,11 +2261,11 @@
         <v/>
       </c>
       <c r="H37" s="17" t="str">
-        <f aca="true">IF(I37 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I37 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J37" s="20" t="n">
-        <f aca="true">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1),F37)</f>
+        <f aca="true">IF(I37 = "-", -INDIRECT("B" &amp; ROW() - 1),F37)</f>
         <v>0</v>
       </c>
       <c r="K37" s="16" t="n">
@@ -2182,10 +2293,13 @@
     </row>
     <row r="38" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="17" t="str">
-        <f aca="false">IF(E38="","",VLOOKUP(E38, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C38" s="0"/>
+        <f aca="false">IF(E38="","",VLOOKUP(E38, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C38" s="17" t="str">
+        <f aca="false">IF(E38="","",VLOOKUP(E38, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D38" s="0"/>
       <c r="F38" s="18"/>
       <c r="G38" s="19" t="str">
@@ -2193,11 +2307,11 @@
         <v/>
       </c>
       <c r="H38" s="17" t="str">
-        <f aca="true">IF(I38 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I38 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J38" s="20" t="n">
-        <f aca="true">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1),F38)</f>
+        <f aca="true">IF(I38 = "-", -INDIRECT("B" &amp; ROW() - 1),F38)</f>
         <v>0</v>
       </c>
       <c r="K38" s="16" t="n">
@@ -2225,10 +2339,13 @@
     </row>
     <row r="39" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="17" t="str">
-        <f aca="false">IF(E39="","",VLOOKUP(E39, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C39" s="0"/>
+        <f aca="false">IF(E39="","",VLOOKUP(E39, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C39" s="17" t="str">
+        <f aca="false">IF(E39="","",VLOOKUP(E39, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D39" s="0"/>
       <c r="F39" s="18"/>
       <c r="G39" s="19" t="str">
@@ -2236,11 +2353,11 @@
         <v/>
       </c>
       <c r="H39" s="17" t="str">
-        <f aca="true">IF(I39 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I39 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J39" s="20" t="n">
-        <f aca="true">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1),F39)</f>
+        <f aca="true">IF(I39 = "-", -INDIRECT("B" &amp; ROW() - 1),F39)</f>
         <v>0</v>
       </c>
       <c r="K39" s="16" t="n">
@@ -2268,10 +2385,13 @@
     </row>
     <row r="40" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="17" t="str">
-        <f aca="false">IF(E40="","",VLOOKUP(E40, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C40" s="0"/>
+        <f aca="false">IF(E40="","",VLOOKUP(E40, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C40" s="17" t="str">
+        <f aca="false">IF(E40="","",VLOOKUP(E40, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D40" s="0"/>
       <c r="F40" s="18"/>
       <c r="G40" s="19" t="str">
@@ -2279,11 +2399,11 @@
         <v/>
       </c>
       <c r="H40" s="17" t="str">
-        <f aca="true">IF(I40 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I40 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J40" s="20" t="n">
-        <f aca="true">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1),F40)</f>
+        <f aca="true">IF(I40 = "-", -INDIRECT("B" &amp; ROW() - 1),F40)</f>
         <v>0</v>
       </c>
       <c r="K40" s="16" t="n">
@@ -2311,10 +2431,13 @@
     </row>
     <row r="41" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="17" t="str">
-        <f aca="false">IF(E41="","",VLOOKUP(E41, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C41" s="0"/>
+        <f aca="false">IF(E41="","",VLOOKUP(E41, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C41" s="17" t="str">
+        <f aca="false">IF(E41="","",VLOOKUP(E41, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D41" s="0"/>
       <c r="F41" s="18"/>
       <c r="G41" s="19" t="str">
@@ -2322,11 +2445,11 @@
         <v/>
       </c>
       <c r="H41" s="17" t="str">
-        <f aca="true">IF(I41 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I41 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J41" s="20" t="n">
-        <f aca="true">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1),F41)</f>
+        <f aca="true">IF(I41 = "-", -INDIRECT("B" &amp; ROW() - 1),F41)</f>
         <v>0</v>
       </c>
       <c r="K41" s="16" t="n">
@@ -2354,10 +2477,13 @@
     </row>
     <row r="42" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="17" t="str">
-        <f aca="false">IF(E42="","",VLOOKUP(E42, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C42" s="0"/>
+        <f aca="false">IF(E42="","",VLOOKUP(E42, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C42" s="17" t="str">
+        <f aca="false">IF(E42="","",VLOOKUP(E42, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D42" s="0"/>
       <c r="F42" s="18"/>
       <c r="G42" s="19" t="str">
@@ -2365,11 +2491,11 @@
         <v/>
       </c>
       <c r="H42" s="17" t="str">
-        <f aca="true">IF(I42 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I42 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J42" s="20" t="n">
-        <f aca="true">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1),F42)</f>
+        <f aca="true">IF(I42 = "-", -INDIRECT("B" &amp; ROW() - 1),F42)</f>
         <v>0</v>
       </c>
       <c r="K42" s="16" t="n">
@@ -2397,10 +2523,13 @@
     </row>
     <row r="43" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="17" t="str">
-        <f aca="false">IF(E43="","",VLOOKUP(E43, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C43" s="0"/>
+        <f aca="false">IF(E43="","",VLOOKUP(E43, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C43" s="17" t="str">
+        <f aca="false">IF(E43="","",VLOOKUP(E43, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D43" s="0"/>
       <c r="F43" s="18"/>
       <c r="G43" s="19" t="str">
@@ -2408,11 +2537,11 @@
         <v/>
       </c>
       <c r="H43" s="17" t="str">
-        <f aca="true">IF(I43 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I43 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J43" s="20" t="n">
-        <f aca="true">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1),F43)</f>
+        <f aca="true">IF(I43 = "-", -INDIRECT("B" &amp; ROW() - 1),F43)</f>
         <v>0</v>
       </c>
       <c r="K43" s="16" t="n">
@@ -2440,10 +2569,13 @@
     </row>
     <row r="44" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="17" t="str">
-        <f aca="false">IF(E44="","",VLOOKUP(E44, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C44" s="0"/>
+        <f aca="false">IF(E44="","",VLOOKUP(E44, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C44" s="17" t="str">
+        <f aca="false">IF(E44="","",VLOOKUP(E44, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D44" s="0"/>
       <c r="F44" s="18"/>
       <c r="G44" s="19" t="str">
@@ -2451,11 +2583,11 @@
         <v/>
       </c>
       <c r="H44" s="17" t="str">
-        <f aca="true">IF(I44 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I44 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J44" s="20" t="n">
-        <f aca="true">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1),F44)</f>
+        <f aca="true">IF(I44 = "-", -INDIRECT("B" &amp; ROW() - 1),F44)</f>
         <v>0</v>
       </c>
       <c r="K44" s="16" t="n">
@@ -2483,10 +2615,13 @@
     </row>
     <row r="45" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="17" t="str">
-        <f aca="false">IF(E45="","",VLOOKUP(E45, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C45" s="0"/>
+        <f aca="false">IF(E45="","",VLOOKUP(E45, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C45" s="17" t="str">
+        <f aca="false">IF(E45="","",VLOOKUP(E45, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D45" s="0"/>
       <c r="F45" s="18"/>
       <c r="G45" s="19" t="str">
@@ -2494,11 +2629,11 @@
         <v/>
       </c>
       <c r="H45" s="17" t="str">
-        <f aca="true">IF(I45 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I45 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J45" s="20" t="n">
-        <f aca="true">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1),F45)</f>
+        <f aca="true">IF(I45 = "-", -INDIRECT("B" &amp; ROW() - 1),F45)</f>
         <v>0</v>
       </c>
       <c r="K45" s="16" t="n">
@@ -2526,10 +2661,13 @@
     </row>
     <row r="46" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="17" t="str">
-        <f aca="false">IF(E46="","",VLOOKUP(E46, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C46" s="0"/>
+        <f aca="false">IF(E46="","",VLOOKUP(E46, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C46" s="17" t="str">
+        <f aca="false">IF(E46="","",VLOOKUP(E46, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D46" s="0"/>
       <c r="F46" s="18"/>
       <c r="G46" s="19" t="str">
@@ -2537,11 +2675,11 @@
         <v/>
       </c>
       <c r="H46" s="17" t="str">
-        <f aca="true">IF(I46 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I46 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J46" s="20" t="n">
-        <f aca="true">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1),F46)</f>
+        <f aca="true">IF(I46 = "-", -INDIRECT("B" &amp; ROW() - 1),F46)</f>
         <v>0</v>
       </c>
       <c r="K46" s="16" t="n">
@@ -2569,10 +2707,13 @@
     </row>
     <row r="47" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="17" t="str">
-        <f aca="false">IF(E47="","",VLOOKUP(E47, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C47" s="0"/>
+        <f aca="false">IF(E47="","",VLOOKUP(E47, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C47" s="17" t="str">
+        <f aca="false">IF(E47="","",VLOOKUP(E47, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D47" s="0"/>
       <c r="F47" s="18"/>
       <c r="G47" s="19" t="str">
@@ -2580,11 +2721,11 @@
         <v/>
       </c>
       <c r="H47" s="17" t="str">
-        <f aca="true">IF(I47 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I47 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J47" s="20" t="n">
-        <f aca="true">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1),F47)</f>
+        <f aca="true">IF(I47 = "-", -INDIRECT("B" &amp; ROW() - 1),F47)</f>
         <v>0</v>
       </c>
       <c r="K47" s="16" t="n">
@@ -2612,10 +2753,13 @@
     </row>
     <row r="48" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="17" t="str">
-        <f aca="false">IF(E48="","",VLOOKUP(E48, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C48" s="0"/>
+        <f aca="false">IF(E48="","",VLOOKUP(E48, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C48" s="17" t="str">
+        <f aca="false">IF(E48="","",VLOOKUP(E48, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D48" s="0"/>
       <c r="F48" s="18"/>
       <c r="G48" s="19" t="str">
@@ -2623,11 +2767,11 @@
         <v/>
       </c>
       <c r="H48" s="17" t="str">
-        <f aca="true">IF(I48 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I48 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J48" s="20" t="n">
-        <f aca="true">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1),F48)</f>
+        <f aca="true">IF(I48 = "-", -INDIRECT("B" &amp; ROW() - 1),F48)</f>
         <v>0</v>
       </c>
       <c r="K48" s="16" t="n">
@@ -2655,10 +2799,13 @@
     </row>
     <row r="49" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="17" t="str">
-        <f aca="false">IF(E49="","",VLOOKUP(E49, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C49" s="0"/>
+        <f aca="false">IF(E49="","",VLOOKUP(E49, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C49" s="17" t="str">
+        <f aca="false">IF(E49="","",VLOOKUP(E49, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D49" s="0"/>
       <c r="F49" s="18"/>
       <c r="G49" s="19" t="str">
@@ -2666,11 +2813,11 @@
         <v/>
       </c>
       <c r="H49" s="17" t="str">
-        <f aca="true">IF(I49 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I49 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J49" s="20" t="n">
-        <f aca="true">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1),F49)</f>
+        <f aca="true">IF(I49 = "-", -INDIRECT("B" &amp; ROW() - 1),F49)</f>
         <v>0</v>
       </c>
       <c r="K49" s="16" t="n">
@@ -2698,10 +2845,13 @@
     </row>
     <row r="50" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="17" t="str">
-        <f aca="false">IF(E50="","",VLOOKUP(E50, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C50" s="0"/>
+        <f aca="false">IF(E50="","",VLOOKUP(E50, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C50" s="17" t="str">
+        <f aca="false">IF(E50="","",VLOOKUP(E50, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D50" s="0"/>
       <c r="F50" s="18"/>
       <c r="G50" s="19" t="str">
@@ -2709,11 +2859,11 @@
         <v/>
       </c>
       <c r="H50" s="17" t="str">
-        <f aca="true">IF(I50 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I50 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J50" s="20" t="n">
-        <f aca="true">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1),F50)</f>
+        <f aca="true">IF(I50 = "-", -INDIRECT("B" &amp; ROW() - 1),F50)</f>
         <v>0</v>
       </c>
       <c r="K50" s="16" t="n">
@@ -2741,10 +2891,13 @@
     </row>
     <row r="51" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="17" t="str">
-        <f aca="false">IF(E51="","",VLOOKUP(E51, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C51" s="0"/>
+        <f aca="false">IF(E51="","",VLOOKUP(E51, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C51" s="17" t="str">
+        <f aca="false">IF(E51="","",VLOOKUP(E51, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D51" s="0"/>
       <c r="F51" s="18"/>
       <c r="G51" s="19" t="str">
@@ -2752,11 +2905,11 @@
         <v/>
       </c>
       <c r="H51" s="17" t="str">
-        <f aca="true">IF(I51 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I51 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J51" s="20" t="n">
-        <f aca="true">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1),F51)</f>
+        <f aca="true">IF(I51 = "-", -INDIRECT("B" &amp; ROW() - 1),F51)</f>
         <v>0</v>
       </c>
       <c r="K51" s="16" t="n">
@@ -2784,10 +2937,13 @@
     </row>
     <row r="52" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="17" t="str">
-        <f aca="false">IF(E52="","",VLOOKUP(E52, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C52" s="0"/>
+        <f aca="false">IF(E52="","",VLOOKUP(E52, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C52" s="17" t="str">
+        <f aca="false">IF(E52="","",VLOOKUP(E52, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D52" s="0"/>
       <c r="F52" s="18"/>
       <c r="G52" s="19" t="str">
@@ -2795,11 +2951,11 @@
         <v/>
       </c>
       <c r="H52" s="17" t="str">
-        <f aca="true">IF(I52 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I52 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J52" s="20" t="n">
-        <f aca="true">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1),F52)</f>
+        <f aca="true">IF(I52 = "-", -INDIRECT("B" &amp; ROW() - 1),F52)</f>
         <v>0</v>
       </c>
       <c r="K52" s="16" t="n">
@@ -2827,10 +2983,13 @@
     </row>
     <row r="53" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="17" t="str">
-        <f aca="false">IF(E53="","",VLOOKUP(E53, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C53" s="0"/>
+        <f aca="false">IF(E53="","",VLOOKUP(E53, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C53" s="17" t="str">
+        <f aca="false">IF(E53="","",VLOOKUP(E53, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D53" s="0"/>
       <c r="F53" s="18"/>
       <c r="G53" s="19" t="str">
@@ -2838,11 +2997,11 @@
         <v/>
       </c>
       <c r="H53" s="17" t="str">
-        <f aca="true">IF(I53 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I53 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J53" s="20" t="n">
-        <f aca="true">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1),F53)</f>
+        <f aca="true">IF(I53 = "-", -INDIRECT("B" &amp; ROW() - 1),F53)</f>
         <v>0</v>
       </c>
       <c r="K53" s="16" t="n">
@@ -2870,10 +3029,13 @@
     </row>
     <row r="54" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="17" t="str">
-        <f aca="false">IF(E54="","",VLOOKUP(E54, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C54" s="0"/>
+        <f aca="false">IF(E54="","",VLOOKUP(E54, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C54" s="17" t="str">
+        <f aca="false">IF(E54="","",VLOOKUP(E54, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D54" s="0"/>
       <c r="F54" s="18"/>
       <c r="G54" s="19" t="str">
@@ -2881,11 +3043,11 @@
         <v/>
       </c>
       <c r="H54" s="17" t="str">
-        <f aca="true">IF(I54 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I54 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J54" s="20" t="n">
-        <f aca="true">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1),F54)</f>
+        <f aca="true">IF(I54 = "-", -INDIRECT("B" &amp; ROW() - 1),F54)</f>
         <v>0</v>
       </c>
       <c r="K54" s="16" t="n">
@@ -2913,10 +3075,13 @@
     </row>
     <row r="55" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="17" t="str">
-        <f aca="false">IF(E55="","",VLOOKUP(E55, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C55" s="0"/>
+        <f aca="false">IF(E55="","",VLOOKUP(E55, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C55" s="17" t="str">
+        <f aca="false">IF(E55="","",VLOOKUP(E55, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D55" s="0"/>
       <c r="F55" s="18"/>
       <c r="G55" s="19" t="str">
@@ -2924,11 +3089,11 @@
         <v/>
       </c>
       <c r="H55" s="17" t="str">
-        <f aca="true">IF(I55 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I55 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J55" s="20" t="n">
-        <f aca="true">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1),F55)</f>
+        <f aca="true">IF(I55 = "-", -INDIRECT("B" &amp; ROW() - 1),F55)</f>
         <v>0</v>
       </c>
       <c r="K55" s="16" t="n">
@@ -2956,10 +3121,13 @@
     </row>
     <row r="56" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="17" t="str">
-        <f aca="false">IF(E56="","",VLOOKUP(E56, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C56" s="0"/>
+        <f aca="false">IF(E56="","",VLOOKUP(E56, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C56" s="17" t="str">
+        <f aca="false">IF(E56="","",VLOOKUP(E56, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D56" s="0"/>
       <c r="F56" s="18"/>
       <c r="G56" s="19" t="str">
@@ -2967,11 +3135,11 @@
         <v/>
       </c>
       <c r="H56" s="17" t="str">
-        <f aca="true">IF(I56 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I56 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J56" s="20" t="n">
-        <f aca="true">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1),F56)</f>
+        <f aca="true">IF(I56 = "-", -INDIRECT("B" &amp; ROW() - 1),F56)</f>
         <v>0</v>
       </c>
       <c r="K56" s="16" t="n">
@@ -2999,10 +3167,13 @@
     </row>
     <row r="57" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="17" t="str">
-        <f aca="false">IF(E57="","",VLOOKUP(E57, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C57" s="0"/>
+        <f aca="false">IF(E57="","",VLOOKUP(E57, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C57" s="17" t="str">
+        <f aca="false">IF(E57="","",VLOOKUP(E57, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D57" s="0"/>
       <c r="F57" s="18"/>
       <c r="G57" s="19" t="str">
@@ -3010,11 +3181,11 @@
         <v/>
       </c>
       <c r="H57" s="17" t="str">
-        <f aca="true">IF(I57 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I57 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J57" s="20" t="n">
-        <f aca="true">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1),F57)</f>
+        <f aca="true">IF(I57 = "-", -INDIRECT("B" &amp; ROW() - 1),F57)</f>
         <v>0</v>
       </c>
       <c r="K57" s="16" t="n">
@@ -3042,10 +3213,13 @@
     </row>
     <row r="58" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="17" t="str">
-        <f aca="false">IF(E58="","",VLOOKUP(E58, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C58" s="0"/>
+        <f aca="false">IF(E58="","",VLOOKUP(E58, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C58" s="17" t="str">
+        <f aca="false">IF(E58="","",VLOOKUP(E58, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D58" s="0"/>
       <c r="F58" s="18"/>
       <c r="G58" s="19" t="str">
@@ -3053,11 +3227,11 @@
         <v/>
       </c>
       <c r="H58" s="17" t="str">
-        <f aca="true">IF(I58 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I58 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J58" s="20" t="n">
-        <f aca="true">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1),F58)</f>
+        <f aca="true">IF(I58 = "-", -INDIRECT("B" &amp; ROW() - 1),F58)</f>
         <v>0</v>
       </c>
       <c r="K58" s="16" t="n">
@@ -3085,10 +3259,13 @@
     </row>
     <row r="59" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="17" t="str">
-        <f aca="false">IF(E59="","",VLOOKUP(E59, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C59" s="0"/>
+        <f aca="false">IF(E59="","",VLOOKUP(E59, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C59" s="17" t="str">
+        <f aca="false">IF(E59="","",VLOOKUP(E59, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D59" s="0"/>
       <c r="F59" s="18"/>
       <c r="G59" s="19" t="str">
@@ -3096,11 +3273,11 @@
         <v/>
       </c>
       <c r="H59" s="17" t="str">
-        <f aca="true">IF(I59 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I59 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J59" s="20" t="n">
-        <f aca="true">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1),F59)</f>
+        <f aca="true">IF(I59 = "-", -INDIRECT("B" &amp; ROW() - 1),F59)</f>
         <v>0</v>
       </c>
       <c r="K59" s="16" t="n">
@@ -3128,10 +3305,13 @@
     </row>
     <row r="60" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="17" t="str">
-        <f aca="false">IF(E60="","",VLOOKUP(E60, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C60" s="0"/>
+        <f aca="false">IF(E60="","",VLOOKUP(E60, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C60" s="17" t="str">
+        <f aca="false">IF(E60="","",VLOOKUP(E60, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D60" s="0"/>
       <c r="F60" s="18"/>
       <c r="G60" s="19" t="str">
@@ -3139,11 +3319,11 @@
         <v/>
       </c>
       <c r="H60" s="17" t="str">
-        <f aca="true">IF(I60 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I60 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J60" s="20" t="n">
-        <f aca="true">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1),F60)</f>
+        <f aca="true">IF(I60 = "-", -INDIRECT("B" &amp; ROW() - 1),F60)</f>
         <v>0</v>
       </c>
       <c r="K60" s="16" t="n">
@@ -3171,10 +3351,13 @@
     </row>
     <row r="61" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="17" t="str">
-        <f aca="false">IF(E61="","",VLOOKUP(E61, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C61" s="0"/>
+        <f aca="false">IF(E61="","",VLOOKUP(E61, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C61" s="17" t="str">
+        <f aca="false">IF(E61="","",VLOOKUP(E61, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D61" s="0"/>
       <c r="F61" s="18"/>
       <c r="G61" s="19" t="str">
@@ -3182,11 +3365,11 @@
         <v/>
       </c>
       <c r="H61" s="17" t="str">
-        <f aca="true">IF(I61 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I61 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J61" s="20" t="n">
-        <f aca="true">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1),F61)</f>
+        <f aca="true">IF(I61 = "-", -INDIRECT("B" &amp; ROW() - 1),F61)</f>
         <v>0</v>
       </c>
       <c r="K61" s="16" t="n">
@@ -3214,10 +3397,13 @@
     </row>
     <row r="62" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="17" t="str">
-        <f aca="false">IF(E62="","",VLOOKUP(E62, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C62" s="0"/>
+        <f aca="false">IF(E62="","",VLOOKUP(E62, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C62" s="17" t="str">
+        <f aca="false">IF(E62="","",VLOOKUP(E62, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D62" s="0"/>
       <c r="F62" s="18"/>
       <c r="G62" s="19" t="str">
@@ -3225,11 +3411,11 @@
         <v/>
       </c>
       <c r="H62" s="17" t="str">
-        <f aca="true">IF(I62 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I62 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J62" s="20" t="n">
-        <f aca="true">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1),F62)</f>
+        <f aca="true">IF(I62 = "-", -INDIRECT("B" &amp; ROW() - 1),F62)</f>
         <v>0</v>
       </c>
       <c r="K62" s="16" t="n">
@@ -3257,10 +3443,13 @@
     </row>
     <row r="63" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="17" t="str">
-        <f aca="false">IF(E63="","",VLOOKUP(E63, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C63" s="0"/>
+        <f aca="false">IF(E63="","",VLOOKUP(E63, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C63" s="17" t="str">
+        <f aca="false">IF(E63="","",VLOOKUP(E63, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D63" s="0"/>
       <c r="F63" s="18"/>
       <c r="G63" s="19" t="str">
@@ -3268,11 +3457,11 @@
         <v/>
       </c>
       <c r="H63" s="17" t="str">
-        <f aca="true">IF(I63 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I63 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J63" s="20" t="n">
-        <f aca="true">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1),F63)</f>
+        <f aca="true">IF(I63 = "-", -INDIRECT("B" &amp; ROW() - 1),F63)</f>
         <v>0</v>
       </c>
       <c r="K63" s="16" t="n">
@@ -3300,10 +3489,13 @@
     </row>
     <row r="64" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="17" t="str">
-        <f aca="false">IF(E64="","",VLOOKUP(E64, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C64" s="0"/>
+        <f aca="false">IF(E64="","",VLOOKUP(E64, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C64" s="17" t="str">
+        <f aca="false">IF(E64="","",VLOOKUP(E64, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D64" s="0"/>
       <c r="F64" s="18"/>
       <c r="G64" s="19" t="str">
@@ -3311,11 +3503,11 @@
         <v/>
       </c>
       <c r="H64" s="17" t="str">
-        <f aca="true">IF(I64 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I64 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J64" s="20" t="n">
-        <f aca="true">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1),F64)</f>
+        <f aca="true">IF(I64 = "-", -INDIRECT("B" &amp; ROW() - 1),F64)</f>
         <v>0</v>
       </c>
       <c r="K64" s="16" t="n">
@@ -3343,10 +3535,13 @@
     </row>
     <row r="65" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="17" t="str">
-        <f aca="false">IF(E65="","",VLOOKUP(E65, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C65" s="0"/>
+        <f aca="false">IF(E65="","",VLOOKUP(E65, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C65" s="17" t="str">
+        <f aca="false">IF(E65="","",VLOOKUP(E65, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D65" s="0"/>
       <c r="F65" s="18"/>
       <c r="G65" s="19" t="str">
@@ -3354,11 +3549,11 @@
         <v/>
       </c>
       <c r="H65" s="17" t="str">
-        <f aca="true">IF(I65 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I65 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J65" s="20" t="n">
-        <f aca="true">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1),F65)</f>
+        <f aca="true">IF(I65 = "-", -INDIRECT("B" &amp; ROW() - 1),F65)</f>
         <v>0</v>
       </c>
       <c r="K65" s="16" t="n">
@@ -3386,10 +3581,13 @@
     </row>
     <row r="66" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="17" t="str">
-        <f aca="false">IF(E66="","",VLOOKUP(E66, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C66" s="0"/>
+        <f aca="false">IF(E66="","",VLOOKUP(E66, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C66" s="17" t="str">
+        <f aca="false">IF(E66="","",VLOOKUP(E66, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D66" s="0"/>
       <c r="F66" s="18"/>
       <c r="G66" s="19" t="str">
@@ -3397,11 +3595,11 @@
         <v/>
       </c>
       <c r="H66" s="17" t="str">
-        <f aca="true">IF(I66 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I66 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J66" s="20" t="n">
-        <f aca="true">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1),F66)</f>
+        <f aca="true">IF(I66 = "-", -INDIRECT("B" &amp; ROW() - 1),F66)</f>
         <v>0</v>
       </c>
       <c r="K66" s="16" t="n">
@@ -3429,10 +3627,13 @@
     </row>
     <row r="67" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="17" t="str">
-        <f aca="false">IF(E67="","",VLOOKUP(E67, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C67" s="0"/>
+        <f aca="false">IF(E67="","",VLOOKUP(E67, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C67" s="17" t="str">
+        <f aca="false">IF(E67="","",VLOOKUP(E67, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D67" s="0"/>
       <c r="F67" s="18"/>
       <c r="G67" s="19" t="str">
@@ -3440,11 +3641,11 @@
         <v/>
       </c>
       <c r="H67" s="17" t="str">
-        <f aca="true">IF(I67 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I67 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J67" s="20" t="n">
-        <f aca="true">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1),F67)</f>
+        <f aca="true">IF(I67 = "-", -INDIRECT("B" &amp; ROW() - 1),F67)</f>
         <v>0</v>
       </c>
       <c r="K67" s="16" t="n">
@@ -3472,10 +3673,13 @@
     </row>
     <row r="68" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="17" t="str">
-        <f aca="false">IF(E68="","",VLOOKUP(E68, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C68" s="0"/>
+        <f aca="false">IF(E68="","",VLOOKUP(E68, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C68" s="17" t="str">
+        <f aca="false">IF(E68="","",VLOOKUP(E68, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D68" s="0"/>
       <c r="F68" s="18"/>
       <c r="G68" s="19" t="str">
@@ -3483,11 +3687,11 @@
         <v/>
       </c>
       <c r="H68" s="17" t="str">
-        <f aca="true">IF(I68 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I68 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J68" s="20" t="n">
-        <f aca="true">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1),F68)</f>
+        <f aca="true">IF(I68 = "-", -INDIRECT("B" &amp; ROW() - 1),F68)</f>
         <v>0</v>
       </c>
       <c r="K68" s="16" t="n">
@@ -3515,10 +3719,13 @@
     </row>
     <row r="69" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="17" t="str">
-        <f aca="false">IF(E69="","",VLOOKUP(E69, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C69" s="0"/>
+        <f aca="false">IF(E69="","",VLOOKUP(E69, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C69" s="17" t="str">
+        <f aca="false">IF(E69="","",VLOOKUP(E69, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D69" s="0"/>
       <c r="F69" s="18"/>
       <c r="G69" s="19" t="str">
@@ -3526,11 +3733,11 @@
         <v/>
       </c>
       <c r="H69" s="17" t="str">
-        <f aca="true">IF(I69 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I69 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J69" s="20" t="n">
-        <f aca="true">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1),F69)</f>
+        <f aca="true">IF(I69 = "-", -INDIRECT("B" &amp; ROW() - 1),F69)</f>
         <v>0</v>
       </c>
       <c r="K69" s="16" t="n">
@@ -3558,10 +3765,13 @@
     </row>
     <row r="70" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="17" t="str">
-        <f aca="false">IF(E70="","",VLOOKUP(E70, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C70" s="0"/>
+        <f aca="false">IF(E70="","",VLOOKUP(E70, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C70" s="17" t="str">
+        <f aca="false">IF(E70="","",VLOOKUP(E70, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D70" s="0"/>
       <c r="F70" s="18"/>
       <c r="G70" s="19" t="str">
@@ -3569,11 +3779,11 @@
         <v/>
       </c>
       <c r="H70" s="17" t="str">
-        <f aca="true">IF(I70 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I70 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J70" s="20" t="n">
-        <f aca="true">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1),F70)</f>
+        <f aca="true">IF(I70 = "-", -INDIRECT("B" &amp; ROW() - 1),F70)</f>
         <v>0</v>
       </c>
       <c r="K70" s="16" t="n">
@@ -3601,10 +3811,13 @@
     </row>
     <row r="71" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="17" t="str">
-        <f aca="false">IF(E71="","",VLOOKUP(E71, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C71" s="0"/>
+        <f aca="false">IF(E71="","",VLOOKUP(E71, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C71" s="17" t="str">
+        <f aca="false">IF(E71="","",VLOOKUP(E71, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D71" s="0"/>
       <c r="F71" s="18"/>
       <c r="G71" s="19" t="str">
@@ -3612,11 +3825,11 @@
         <v/>
       </c>
       <c r="H71" s="17" t="str">
-        <f aca="true">IF(I71 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I71 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J71" s="20" t="n">
-        <f aca="true">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1),F71)</f>
+        <f aca="true">IF(I71 = "-", -INDIRECT("B" &amp; ROW() - 1),F71)</f>
         <v>0</v>
       </c>
       <c r="K71" s="16" t="n">
@@ -3644,10 +3857,13 @@
     </row>
     <row r="72" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="17" t="str">
-        <f aca="false">IF(E72="","",VLOOKUP(E72, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C72" s="0"/>
+        <f aca="false">IF(E72="","",VLOOKUP(E72, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C72" s="17" t="str">
+        <f aca="false">IF(E72="","",VLOOKUP(E72, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D72" s="0"/>
       <c r="F72" s="18"/>
       <c r="G72" s="19" t="str">
@@ -3655,11 +3871,11 @@
         <v/>
       </c>
       <c r="H72" s="17" t="str">
-        <f aca="true">IF(I72 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I72 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J72" s="20" t="n">
-        <f aca="true">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1),F72)</f>
+        <f aca="true">IF(I72 = "-", -INDIRECT("B" &amp; ROW() - 1),F72)</f>
         <v>0</v>
       </c>
       <c r="K72" s="16" t="n">
@@ -3687,10 +3903,13 @@
     </row>
     <row r="73" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="17" t="str">
-        <f aca="false">IF(E73="","",VLOOKUP(E73, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C73" s="0"/>
+        <f aca="false">IF(E73="","",VLOOKUP(E73, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C73" s="17" t="str">
+        <f aca="false">IF(E73="","",VLOOKUP(E73, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D73" s="0"/>
       <c r="F73" s="18"/>
       <c r="G73" s="19" t="str">
@@ -3698,11 +3917,11 @@
         <v/>
       </c>
       <c r="H73" s="17" t="str">
-        <f aca="true">IF(I73 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I73 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J73" s="20" t="n">
-        <f aca="true">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1),F73)</f>
+        <f aca="true">IF(I73 = "-", -INDIRECT("B" &amp; ROW() - 1),F73)</f>
         <v>0</v>
       </c>
       <c r="K73" s="16" t="n">
@@ -3730,10 +3949,13 @@
     </row>
     <row r="74" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="17" t="str">
-        <f aca="false">IF(E74="","",VLOOKUP(E74, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C74" s="0"/>
+        <f aca="false">IF(E74="","",VLOOKUP(E74, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C74" s="17" t="str">
+        <f aca="false">IF(E74="","",VLOOKUP(E74, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D74" s="0"/>
       <c r="F74" s="18"/>
       <c r="G74" s="19" t="str">
@@ -3741,11 +3963,11 @@
         <v/>
       </c>
       <c r="H74" s="17" t="str">
-        <f aca="true">IF(I74 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I74 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J74" s="20" t="n">
-        <f aca="true">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1),F74)</f>
+        <f aca="true">IF(I74 = "-", -INDIRECT("B" &amp; ROW() - 1),F74)</f>
         <v>0</v>
       </c>
       <c r="K74" s="16" t="n">
@@ -3773,10 +3995,13 @@
     </row>
     <row r="75" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="17" t="str">
-        <f aca="false">IF(E75="","",VLOOKUP(E75, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C75" s="0"/>
+        <f aca="false">IF(E75="","",VLOOKUP(E75, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C75" s="17" t="str">
+        <f aca="false">IF(E75="","",VLOOKUP(E75, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D75" s="0"/>
       <c r="F75" s="18"/>
       <c r="G75" s="19" t="str">
@@ -3784,11 +4009,11 @@
         <v/>
       </c>
       <c r="H75" s="17" t="str">
-        <f aca="true">IF(I75 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I75 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J75" s="20" t="n">
-        <f aca="true">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1),F75)</f>
+        <f aca="true">IF(I75 = "-", -INDIRECT("B" &amp; ROW() - 1),F75)</f>
         <v>0</v>
       </c>
       <c r="K75" s="16" t="n">
@@ -3816,10 +4041,13 @@
     </row>
     <row r="76" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="17" t="str">
-        <f aca="false">IF(E76="","",VLOOKUP(E76, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C76" s="0"/>
+        <f aca="false">IF(E76="","",VLOOKUP(E76, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C76" s="17" t="str">
+        <f aca="false">IF(E76="","",VLOOKUP(E76, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D76" s="0"/>
       <c r="F76" s="18"/>
       <c r="G76" s="19" t="str">
@@ -3827,11 +4055,11 @@
         <v/>
       </c>
       <c r="H76" s="17" t="str">
-        <f aca="true">IF(I76 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I76 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J76" s="20" t="n">
-        <f aca="true">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1),F76)</f>
+        <f aca="true">IF(I76 = "-", -INDIRECT("B" &amp; ROW() - 1),F76)</f>
         <v>0</v>
       </c>
       <c r="K76" s="16" t="n">
@@ -3859,10 +4087,13 @@
     </row>
     <row r="77" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="17" t="str">
-        <f aca="false">IF(E77="","",VLOOKUP(E77, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C77" s="0"/>
+        <f aca="false">IF(E77="","",VLOOKUP(E77, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C77" s="17" t="str">
+        <f aca="false">IF(E77="","",VLOOKUP(E77, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D77" s="0"/>
       <c r="F77" s="18"/>
       <c r="G77" s="19" t="str">
@@ -3870,11 +4101,11 @@
         <v/>
       </c>
       <c r="H77" s="17" t="str">
-        <f aca="true">IF(I77 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I77 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J77" s="20" t="n">
-        <f aca="true">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1),F77)</f>
+        <f aca="true">IF(I77 = "-", -INDIRECT("B" &amp; ROW() - 1),F77)</f>
         <v>0</v>
       </c>
       <c r="K77" s="16" t="n">
@@ -3902,10 +4133,13 @@
     </row>
     <row r="78" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="17" t="str">
-        <f aca="false">IF(E78="","",VLOOKUP(E78, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C78" s="0"/>
+        <f aca="false">IF(E78="","",VLOOKUP(E78, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C78" s="17" t="str">
+        <f aca="false">IF(E78="","",VLOOKUP(E78, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D78" s="0"/>
       <c r="F78" s="18"/>
       <c r="G78" s="19" t="str">
@@ -3913,11 +4147,11 @@
         <v/>
       </c>
       <c r="H78" s="17" t="str">
-        <f aca="true">IF(I78 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I78 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J78" s="20" t="n">
-        <f aca="true">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1),F78)</f>
+        <f aca="true">IF(I78 = "-", -INDIRECT("B" &amp; ROW() - 1),F78)</f>
         <v>0</v>
       </c>
       <c r="K78" s="16" t="n">
@@ -3945,10 +4179,13 @@
     </row>
     <row r="79" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="17" t="str">
-        <f aca="false">IF(E79="","",VLOOKUP(E79, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C79" s="0"/>
+        <f aca="false">IF(E79="","",VLOOKUP(E79, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C79" s="17" t="str">
+        <f aca="false">IF(E79="","",VLOOKUP(E79, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D79" s="0"/>
       <c r="F79" s="18"/>
       <c r="G79" s="19" t="str">
@@ -3956,11 +4193,11 @@
         <v/>
       </c>
       <c r="H79" s="17" t="str">
-        <f aca="true">IF(I79 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I79 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J79" s="20" t="n">
-        <f aca="true">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1),F79)</f>
+        <f aca="true">IF(I79 = "-", -INDIRECT("B" &amp; ROW() - 1),F79)</f>
         <v>0</v>
       </c>
       <c r="K79" s="16" t="n">
@@ -3988,10 +4225,13 @@
     </row>
     <row r="80" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="17" t="str">
-        <f aca="false">IF(E80="","",VLOOKUP(E80, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C80" s="0"/>
+        <f aca="false">IF(E80="","",VLOOKUP(E80, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C80" s="17" t="str">
+        <f aca="false">IF(E80="","",VLOOKUP(E80, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D80" s="0"/>
       <c r="F80" s="18"/>
       <c r="G80" s="19" t="str">
@@ -3999,11 +4239,11 @@
         <v/>
       </c>
       <c r="H80" s="17" t="str">
-        <f aca="true">IF(I80 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I80 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J80" s="20" t="n">
-        <f aca="true">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1),F80)</f>
+        <f aca="true">IF(I80 = "-", -INDIRECT("B" &amp; ROW() - 1),F80)</f>
         <v>0</v>
       </c>
       <c r="K80" s="16" t="n">
@@ -4031,10 +4271,13 @@
     </row>
     <row r="81" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="17" t="str">
-        <f aca="false">IF(E81="","",VLOOKUP(E81, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C81" s="0"/>
+        <f aca="false">IF(E81="","",VLOOKUP(E81, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C81" s="17" t="str">
+        <f aca="false">IF(E81="","",VLOOKUP(E81, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D81" s="0"/>
       <c r="F81" s="18"/>
       <c r="G81" s="19" t="str">
@@ -4042,11 +4285,11 @@
         <v/>
       </c>
       <c r="H81" s="17" t="str">
-        <f aca="true">IF(I81 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I81 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J81" s="20" t="n">
-        <f aca="true">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1),F81)</f>
+        <f aca="true">IF(I81 = "-", -INDIRECT("B" &amp; ROW() - 1),F81)</f>
         <v>0</v>
       </c>
       <c r="K81" s="16" t="n">
@@ -4074,10 +4317,13 @@
     </row>
     <row r="82" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="17" t="str">
-        <f aca="false">IF(E82="","",VLOOKUP(E82, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C82" s="0"/>
+        <f aca="false">IF(E82="","",VLOOKUP(E82, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C82" s="17" t="str">
+        <f aca="false">IF(E82="","",VLOOKUP(E82, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D82" s="0"/>
       <c r="F82" s="18"/>
       <c r="G82" s="19" t="str">
@@ -4085,11 +4331,11 @@
         <v/>
       </c>
       <c r="H82" s="17" t="str">
-        <f aca="true">IF(I82 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I82 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J82" s="20" t="n">
-        <f aca="true">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1),F82)</f>
+        <f aca="true">IF(I82 = "-", -INDIRECT("B" &amp; ROW() - 1),F82)</f>
         <v>0</v>
       </c>
       <c r="K82" s="16" t="n">
@@ -4117,10 +4363,13 @@
     </row>
     <row r="83" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="17" t="str">
-        <f aca="false">IF(E83="","",VLOOKUP(E83, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C83" s="0"/>
+        <f aca="false">IF(E83="","",VLOOKUP(E83, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C83" s="17" t="str">
+        <f aca="false">IF(E83="","",VLOOKUP(E83, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D83" s="0"/>
       <c r="F83" s="18"/>
       <c r="G83" s="19" t="str">
@@ -4128,11 +4377,11 @@
         <v/>
       </c>
       <c r="H83" s="17" t="str">
-        <f aca="true">IF(I83 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I83 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J83" s="20" t="n">
-        <f aca="true">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1),F83)</f>
+        <f aca="true">IF(I83 = "-", -INDIRECT("B" &amp; ROW() - 1),F83)</f>
         <v>0</v>
       </c>
       <c r="K83" s="16" t="n">
@@ -4160,10 +4409,13 @@
     </row>
     <row r="84" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="17" t="str">
-        <f aca="false">IF(E84="","",VLOOKUP(E84, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C84" s="0"/>
+        <f aca="false">IF(E84="","",VLOOKUP(E84, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C84" s="17" t="str">
+        <f aca="false">IF(E84="","",VLOOKUP(E84, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D84" s="0"/>
       <c r="F84" s="18"/>
       <c r="G84" s="19" t="str">
@@ -4171,11 +4423,11 @@
         <v/>
       </c>
       <c r="H84" s="17" t="str">
-        <f aca="true">IF(I84 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I84 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J84" s="20" t="n">
-        <f aca="true">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1),F84)</f>
+        <f aca="true">IF(I84 = "-", -INDIRECT("B" &amp; ROW() - 1),F84)</f>
         <v>0</v>
       </c>
       <c r="K84" s="16" t="n">
@@ -4203,10 +4455,13 @@
     </row>
     <row r="85" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="17" t="str">
-        <f aca="false">IF(E85="","",VLOOKUP(E85, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C85" s="0"/>
+        <f aca="false">IF(E85="","",VLOOKUP(E85, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C85" s="17" t="str">
+        <f aca="false">IF(E85="","",VLOOKUP(E85, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D85" s="0"/>
       <c r="F85" s="18"/>
       <c r="G85" s="19" t="str">
@@ -4214,11 +4469,11 @@
         <v/>
       </c>
       <c r="H85" s="17" t="str">
-        <f aca="true">IF(I85 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I85 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J85" s="20" t="n">
-        <f aca="true">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1),F85)</f>
+        <f aca="true">IF(I85 = "-", -INDIRECT("B" &amp; ROW() - 1),F85)</f>
         <v>0</v>
       </c>
       <c r="K85" s="16" t="n">
@@ -4246,10 +4501,13 @@
     </row>
     <row r="86" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="17" t="str">
-        <f aca="false">IF(E86="","",VLOOKUP(E86, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C86" s="0"/>
+        <f aca="false">IF(E86="","",VLOOKUP(E86, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C86" s="17" t="str">
+        <f aca="false">IF(E86="","",VLOOKUP(E86, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D86" s="0"/>
       <c r="F86" s="18"/>
       <c r="G86" s="19" t="str">
@@ -4257,11 +4515,11 @@
         <v/>
       </c>
       <c r="H86" s="17" t="str">
-        <f aca="true">IF(I86 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I86 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J86" s="20" t="n">
-        <f aca="true">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1),F86)</f>
+        <f aca="true">IF(I86 = "-", -INDIRECT("B" &amp; ROW() - 1),F86)</f>
         <v>0</v>
       </c>
       <c r="K86" s="16" t="n">
@@ -4289,10 +4547,13 @@
     </row>
     <row r="87" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="17" t="str">
-        <f aca="false">IF(E87="","",VLOOKUP(E87, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C87" s="0"/>
+        <f aca="false">IF(E87="","",VLOOKUP(E87, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C87" s="17" t="str">
+        <f aca="false">IF(E87="","",VLOOKUP(E87, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D87" s="0"/>
       <c r="F87" s="18"/>
       <c r="G87" s="19" t="str">
@@ -4300,11 +4561,11 @@
         <v/>
       </c>
       <c r="H87" s="17" t="str">
-        <f aca="true">IF(I87 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I87 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J87" s="20" t="n">
-        <f aca="true">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1),F87)</f>
+        <f aca="true">IF(I87 = "-", -INDIRECT("B" &amp; ROW() - 1),F87)</f>
         <v>0</v>
       </c>
       <c r="K87" s="16" t="n">
@@ -4332,10 +4593,13 @@
     </row>
     <row r="88" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="17" t="str">
-        <f aca="false">IF(E88="","",VLOOKUP(E88, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C88" s="0"/>
+        <f aca="false">IF(E88="","",VLOOKUP(E88, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C88" s="17" t="str">
+        <f aca="false">IF(E88="","",VLOOKUP(E88, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D88" s="0"/>
       <c r="F88" s="18"/>
       <c r="G88" s="19" t="str">
@@ -4343,11 +4607,11 @@
         <v/>
       </c>
       <c r="H88" s="17" t="str">
-        <f aca="true">IF(I88 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I88 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J88" s="20" t="n">
-        <f aca="true">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1),F88)</f>
+        <f aca="true">IF(I88 = "-", -INDIRECT("B" &amp; ROW() - 1),F88)</f>
         <v>0</v>
       </c>
       <c r="K88" s="16" t="n">
@@ -4375,10 +4639,13 @@
     </row>
     <row r="89" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="17" t="str">
-        <f aca="false">IF(E89="","",VLOOKUP(E89, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C89" s="0"/>
+        <f aca="false">IF(E89="","",VLOOKUP(E89, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C89" s="17" t="str">
+        <f aca="false">IF(E89="","",VLOOKUP(E89, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D89" s="0"/>
       <c r="F89" s="18"/>
       <c r="G89" s="19" t="str">
@@ -4386,11 +4653,11 @@
         <v/>
       </c>
       <c r="H89" s="17" t="str">
-        <f aca="true">IF(I89 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I89 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J89" s="20" t="n">
-        <f aca="true">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1),F89)</f>
+        <f aca="true">IF(I89 = "-", -INDIRECT("B" &amp; ROW() - 1),F89)</f>
         <v>0</v>
       </c>
       <c r="K89" s="16" t="n">
@@ -4418,10 +4685,13 @@
     </row>
     <row r="90" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="17" t="str">
-        <f aca="false">IF(E90="","",VLOOKUP(E90, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C90" s="0"/>
+        <f aca="false">IF(E90="","",VLOOKUP(E90, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C90" s="17" t="str">
+        <f aca="false">IF(E90="","",VLOOKUP(E90, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D90" s="0"/>
       <c r="F90" s="18"/>
       <c r="G90" s="19" t="str">
@@ -4429,11 +4699,11 @@
         <v/>
       </c>
       <c r="H90" s="17" t="str">
-        <f aca="true">IF(I90 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I90 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J90" s="20" t="n">
-        <f aca="true">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1),F90)</f>
+        <f aca="true">IF(I90 = "-", -INDIRECT("B" &amp; ROW() - 1),F90)</f>
         <v>0</v>
       </c>
       <c r="K90" s="16" t="n">
@@ -4461,10 +4731,13 @@
     </row>
     <row r="91" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="17" t="str">
-        <f aca="false">IF(E91="","",VLOOKUP(E91, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C91" s="0"/>
+        <f aca="false">IF(E91="","",VLOOKUP(E91, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C91" s="17" t="str">
+        <f aca="false">IF(E91="","",VLOOKUP(E91, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D91" s="0"/>
       <c r="F91" s="18"/>
       <c r="G91" s="19" t="str">
@@ -4472,11 +4745,11 @@
         <v/>
       </c>
       <c r="H91" s="17" t="str">
-        <f aca="true">IF(I91 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I91 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J91" s="20" t="n">
-        <f aca="true">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1),F91)</f>
+        <f aca="true">IF(I91 = "-", -INDIRECT("B" &amp; ROW() - 1),F91)</f>
         <v>0</v>
       </c>
       <c r="K91" s="16" t="n">
@@ -4504,10 +4777,13 @@
     </row>
     <row r="92" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="17" t="str">
-        <f aca="false">IF(E92="","",VLOOKUP(E92, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C92" s="0"/>
+        <f aca="false">IF(E92="","",VLOOKUP(E92, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C92" s="17" t="str">
+        <f aca="false">IF(E92="","",VLOOKUP(E92, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D92" s="0"/>
       <c r="F92" s="18"/>
       <c r="G92" s="19" t="str">
@@ -4515,11 +4791,11 @@
         <v/>
       </c>
       <c r="H92" s="17" t="str">
-        <f aca="true">IF(I92 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I92 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J92" s="20" t="n">
-        <f aca="true">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1),F92)</f>
+        <f aca="true">IF(I92 = "-", -INDIRECT("B" &amp; ROW() - 1),F92)</f>
         <v>0</v>
       </c>
       <c r="K92" s="16" t="n">
@@ -4547,10 +4823,13 @@
     </row>
     <row r="93" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="17" t="str">
-        <f aca="false">IF(E93="","",VLOOKUP(E93, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C93" s="0"/>
+        <f aca="false">IF(E93="","",VLOOKUP(E93, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C93" s="17" t="str">
+        <f aca="false">IF(E93="","",VLOOKUP(E93, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D93" s="0"/>
       <c r="F93" s="18"/>
       <c r="G93" s="19" t="str">
@@ -4558,11 +4837,11 @@
         <v/>
       </c>
       <c r="H93" s="17" t="str">
-        <f aca="true">IF(I93 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I93 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J93" s="20" t="n">
-        <f aca="true">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1),F93)</f>
+        <f aca="true">IF(I93 = "-", -INDIRECT("B" &amp; ROW() - 1),F93)</f>
         <v>0</v>
       </c>
       <c r="K93" s="16" t="n">
@@ -4590,10 +4869,13 @@
     </row>
     <row r="94" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="17" t="str">
-        <f aca="false">IF(E94="","",VLOOKUP(E94, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C94" s="0"/>
+        <f aca="false">IF(E94="","",VLOOKUP(E94, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C94" s="17" t="str">
+        <f aca="false">IF(E94="","",VLOOKUP(E94, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D94" s="0"/>
       <c r="F94" s="18"/>
       <c r="G94" s="19" t="str">
@@ -4601,11 +4883,11 @@
         <v/>
       </c>
       <c r="H94" s="17" t="str">
-        <f aca="true">IF(I94 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I94 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J94" s="20" t="n">
-        <f aca="true">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1),F94)</f>
+        <f aca="true">IF(I94 = "-", -INDIRECT("B" &amp; ROW() - 1),F94)</f>
         <v>0</v>
       </c>
       <c r="K94" s="16" t="n">
@@ -4633,10 +4915,13 @@
     </row>
     <row r="95" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="17" t="str">
-        <f aca="false">IF(E95="","",VLOOKUP(E95, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C95" s="0"/>
+        <f aca="false">IF(E95="","",VLOOKUP(E95, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C95" s="17" t="str">
+        <f aca="false">IF(E95="","",VLOOKUP(E95, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D95" s="0"/>
       <c r="F95" s="18"/>
       <c r="G95" s="19" t="str">
@@ -4644,11 +4929,11 @@
         <v/>
       </c>
       <c r="H95" s="17" t="str">
-        <f aca="true">IF(I95 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I95 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J95" s="20" t="n">
-        <f aca="true">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1),F95)</f>
+        <f aca="true">IF(I95 = "-", -INDIRECT("B" &amp; ROW() - 1),F95)</f>
         <v>0</v>
       </c>
       <c r="K95" s="16" t="n">
@@ -4676,10 +4961,13 @@
     </row>
     <row r="96" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="17" t="str">
-        <f aca="false">IF(E96="","",VLOOKUP(E96, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C96" s="0"/>
+        <f aca="false">IF(E96="","",VLOOKUP(E96, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C96" s="17" t="str">
+        <f aca="false">IF(E96="","",VLOOKUP(E96, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D96" s="0"/>
       <c r="F96" s="18"/>
       <c r="G96" s="19" t="str">
@@ -4687,11 +4975,11 @@
         <v/>
       </c>
       <c r="H96" s="17" t="str">
-        <f aca="true">IF(I96 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I96 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J96" s="20" t="n">
-        <f aca="true">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1),F96)</f>
+        <f aca="true">IF(I96 = "-", -INDIRECT("B" &amp; ROW() - 1),F96)</f>
         <v>0</v>
       </c>
       <c r="K96" s="16" t="n">
@@ -4719,10 +5007,13 @@
     </row>
     <row r="97" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="17" t="str">
-        <f aca="false">IF(E97="","",VLOOKUP(E97, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C97" s="0"/>
+        <f aca="false">IF(E97="","",VLOOKUP(E97, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C97" s="17" t="str">
+        <f aca="false">IF(E97="","",VLOOKUP(E97, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D97" s="0"/>
       <c r="F97" s="18"/>
       <c r="G97" s="19" t="str">
@@ -4730,11 +5021,11 @@
         <v/>
       </c>
       <c r="H97" s="17" t="str">
-        <f aca="true">IF(I97 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I97 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J97" s="20" t="n">
-        <f aca="true">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1),F97)</f>
+        <f aca="true">IF(I97 = "-", -INDIRECT("B" &amp; ROW() - 1),F97)</f>
         <v>0</v>
       </c>
       <c r="K97" s="16" t="n">
@@ -4762,10 +5053,13 @@
     </row>
     <row r="98" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="17" t="str">
-        <f aca="false">IF(E98="","",VLOOKUP(E98, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C98" s="0"/>
+        <f aca="false">IF(E98="","",VLOOKUP(E98, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C98" s="17" t="str">
+        <f aca="false">IF(E98="","",VLOOKUP(E98, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D98" s="0"/>
       <c r="F98" s="18"/>
       <c r="G98" s="19" t="str">
@@ -4773,11 +5067,11 @@
         <v/>
       </c>
       <c r="H98" s="17" t="str">
-        <f aca="true">IF(I98 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I98 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J98" s="20" t="n">
-        <f aca="true">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1),F98)</f>
+        <f aca="true">IF(I98 = "-", -INDIRECT("B" &amp; ROW() - 1),F98)</f>
         <v>0</v>
       </c>
       <c r="K98" s="16" t="n">
@@ -4805,10 +5099,13 @@
     </row>
     <row r="99" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="17" t="str">
-        <f aca="false">IF(E99="","",VLOOKUP(E99, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C99" s="0"/>
+        <f aca="false">IF(E99="","",VLOOKUP(E99, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C99" s="17" t="str">
+        <f aca="false">IF(E99="","",VLOOKUP(E99, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D99" s="0"/>
       <c r="F99" s="18"/>
       <c r="G99" s="19" t="str">
@@ -4816,11 +5113,11 @@
         <v/>
       </c>
       <c r="H99" s="17" t="str">
-        <f aca="true">IF(I99 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I99 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J99" s="20" t="n">
-        <f aca="true">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1),F99)</f>
+        <f aca="true">IF(I99 = "-", -INDIRECT("B" &amp; ROW() - 1),F99)</f>
         <v>0</v>
       </c>
       <c r="K99" s="16" t="n">
@@ -4848,10 +5145,13 @@
     </row>
     <row r="100" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="17" t="str">
-        <f aca="false">IF(E100="","",VLOOKUP(E100, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C100" s="0"/>
+        <f aca="false">IF(E100="","",VLOOKUP(E100, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C100" s="17" t="str">
+        <f aca="false">IF(E100="","",VLOOKUP(E100, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D100" s="0"/>
       <c r="F100" s="18"/>
       <c r="G100" s="19" t="str">
@@ -4859,11 +5159,11 @@
         <v/>
       </c>
       <c r="H100" s="17" t="str">
-        <f aca="true">IF(I100 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I100 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J100" s="20" t="n">
-        <f aca="true">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1),F100)</f>
+        <f aca="true">IF(I100 = "-", -INDIRECT("B" &amp; ROW() - 1),F100)</f>
         <v>0</v>
       </c>
       <c r="K100" s="16" t="n">
@@ -4891,10 +5191,13 @@
     </row>
     <row r="101" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="17" t="str">
-        <f aca="false">IF(E101="","",VLOOKUP(E101, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C101" s="0"/>
+        <f aca="false">IF(E101="","",VLOOKUP(E101, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C101" s="17" t="str">
+        <f aca="false">IF(E101="","",VLOOKUP(E101, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D101" s="0"/>
       <c r="F101" s="18"/>
       <c r="G101" s="19" t="str">
@@ -4902,11 +5205,11 @@
         <v/>
       </c>
       <c r="H101" s="17" t="str">
-        <f aca="true">IF(I101 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I101 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J101" s="20" t="n">
-        <f aca="true">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1),F101)</f>
+        <f aca="true">IF(I101 = "-", -INDIRECT("B" &amp; ROW() - 1),F101)</f>
         <v>0</v>
       </c>
       <c r="K101" s="16" t="n">
@@ -4934,10 +5237,13 @@
     </row>
     <row r="102" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="17" t="str">
-        <f aca="false">IF(E102="","",VLOOKUP(E102, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C102" s="0"/>
+        <f aca="false">IF(E102="","",VLOOKUP(E102, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C102" s="17" t="str">
+        <f aca="false">IF(E102="","",VLOOKUP(E102, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D102" s="0"/>
       <c r="F102" s="18"/>
       <c r="G102" s="19" t="str">
@@ -4945,11 +5251,11 @@
         <v/>
       </c>
       <c r="H102" s="17" t="str">
-        <f aca="true">IF(I102 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I102 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J102" s="20" t="n">
-        <f aca="true">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1),F102)</f>
+        <f aca="true">IF(I102 = "-", -INDIRECT("B" &amp; ROW() - 1),F102)</f>
         <v>0</v>
       </c>
       <c r="K102" s="16" t="n">
@@ -4977,10 +5283,13 @@
     </row>
     <row r="103" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="17" t="str">
-        <f aca="false">IF(E103="","",VLOOKUP(E103, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C103" s="0"/>
+        <f aca="false">IF(E103="","",VLOOKUP(E103, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C103" s="17" t="str">
+        <f aca="false">IF(E103="","",VLOOKUP(E103, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D103" s="0"/>
       <c r="F103" s="18"/>
       <c r="G103" s="19" t="str">
@@ -4988,11 +5297,11 @@
         <v/>
       </c>
       <c r="H103" s="17" t="str">
-        <f aca="true">IF(I103 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I103 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J103" s="20" t="n">
-        <f aca="true">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1),F103)</f>
+        <f aca="true">IF(I103 = "-", -INDIRECT("B" &amp; ROW() - 1),F103)</f>
         <v>0</v>
       </c>
       <c r="K103" s="16" t="n">
@@ -5020,10 +5329,13 @@
     </row>
     <row r="104" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="17" t="str">
-        <f aca="false">IF(E104="","",VLOOKUP(E104, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C104" s="0"/>
+        <f aca="false">IF(E104="","",VLOOKUP(E104, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C104" s="17" t="str">
+        <f aca="false">IF(E104="","",VLOOKUP(E104, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D104" s="0"/>
       <c r="F104" s="18"/>
       <c r="G104" s="19" t="str">
@@ -5031,11 +5343,11 @@
         <v/>
       </c>
       <c r="H104" s="17" t="str">
-        <f aca="true">IF(I104 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I104 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J104" s="20" t="n">
-        <f aca="true">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1),F104)</f>
+        <f aca="true">IF(I104 = "-", -INDIRECT("B" &amp; ROW() - 1),F104)</f>
         <v>0</v>
       </c>
       <c r="K104" s="16" t="n">
@@ -5063,10 +5375,13 @@
     </row>
     <row r="105" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="17" t="str">
-        <f aca="false">IF(E105="","",VLOOKUP(E105, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C105" s="0"/>
+        <f aca="false">IF(E105="","",VLOOKUP(E105, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C105" s="17" t="str">
+        <f aca="false">IF(E105="","",VLOOKUP(E105, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D105" s="0"/>
       <c r="F105" s="18"/>
       <c r="G105" s="19" t="str">
@@ -5074,11 +5389,11 @@
         <v/>
       </c>
       <c r="H105" s="17" t="str">
-        <f aca="true">IF(I105 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I105 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J105" s="20" t="n">
-        <f aca="true">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1),F105)</f>
+        <f aca="true">IF(I105 = "-", -INDIRECT("B" &amp; ROW() - 1),F105)</f>
         <v>0</v>
       </c>
       <c r="K105" s="16" t="n">
@@ -5106,10 +5421,13 @@
     </row>
     <row r="106" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="17" t="str">
-        <f aca="false">IF(E106="","",VLOOKUP(E106, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C106" s="0"/>
+        <f aca="false">IF(E106="","",VLOOKUP(E106, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C106" s="17" t="str">
+        <f aca="false">IF(E106="","",VLOOKUP(E106, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D106" s="0"/>
       <c r="F106" s="18"/>
       <c r="G106" s="19" t="str">
@@ -5117,11 +5435,11 @@
         <v/>
       </c>
       <c r="H106" s="17" t="str">
-        <f aca="true">IF(I106 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I106 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J106" s="20" t="n">
-        <f aca="true">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1),F106)</f>
+        <f aca="true">IF(I106 = "-", -INDIRECT("B" &amp; ROW() - 1),F106)</f>
         <v>0</v>
       </c>
       <c r="K106" s="16" t="n">
@@ -5149,10 +5467,13 @@
     </row>
     <row r="107" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="17" t="str">
-        <f aca="false">IF(E107="","",VLOOKUP(E107, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C107" s="0"/>
+        <f aca="false">IF(E107="","",VLOOKUP(E107, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C107" s="17" t="str">
+        <f aca="false">IF(E107="","",VLOOKUP(E107, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D107" s="0"/>
       <c r="F107" s="18"/>
       <c r="G107" s="19" t="str">
@@ -5160,11 +5481,11 @@
         <v/>
       </c>
       <c r="H107" s="17" t="str">
-        <f aca="true">IF(I107 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I107 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J107" s="20" t="n">
-        <f aca="true">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1),F107)</f>
+        <f aca="true">IF(I107 = "-", -INDIRECT("B" &amp; ROW() - 1),F107)</f>
         <v>0</v>
       </c>
       <c r="K107" s="16" t="n">
@@ -5192,10 +5513,13 @@
     </row>
     <row r="108" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="17" t="str">
-        <f aca="false">IF(E108="","",VLOOKUP(E108, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C108" s="0"/>
+        <f aca="false">IF(E108="","",VLOOKUP(E108, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C108" s="17" t="str">
+        <f aca="false">IF(E108="","",VLOOKUP(E108, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D108" s="0"/>
       <c r="F108" s="18"/>
       <c r="G108" s="19" t="str">
@@ -5203,11 +5527,11 @@
         <v/>
       </c>
       <c r="H108" s="17" t="str">
-        <f aca="true">IF(I108 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I108 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J108" s="20" t="n">
-        <f aca="true">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1),F108)</f>
+        <f aca="true">IF(I108 = "-", -INDIRECT("B" &amp; ROW() - 1),F108)</f>
         <v>0</v>
       </c>
       <c r="K108" s="16" t="n">
@@ -5235,10 +5559,13 @@
     </row>
     <row r="109" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="17" t="str">
-        <f aca="false">IF(E109="","",VLOOKUP(E109, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C109" s="0"/>
+        <f aca="false">IF(E109="","",VLOOKUP(E109, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C109" s="17" t="str">
+        <f aca="false">IF(E109="","",VLOOKUP(E109, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D109" s="0"/>
       <c r="F109" s="18"/>
       <c r="G109" s="19" t="str">
@@ -5246,11 +5573,11 @@
         <v/>
       </c>
       <c r="H109" s="17" t="str">
-        <f aca="true">IF(I109 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I109 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J109" s="20" t="n">
-        <f aca="true">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1),F109)</f>
+        <f aca="true">IF(I109 = "-", -INDIRECT("B" &amp; ROW() - 1),F109)</f>
         <v>0</v>
       </c>
       <c r="K109" s="16" t="n">
@@ -5278,10 +5605,13 @@
     </row>
     <row r="110" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="17" t="str">
-        <f aca="false">IF(E110="","",VLOOKUP(E110, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C110" s="0"/>
+        <f aca="false">IF(E110="","",VLOOKUP(E110, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C110" s="17" t="str">
+        <f aca="false">IF(E110="","",VLOOKUP(E110, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D110" s="0"/>
       <c r="F110" s="18"/>
       <c r="G110" s="19" t="str">
@@ -5289,11 +5619,11 @@
         <v/>
       </c>
       <c r="H110" s="17" t="str">
-        <f aca="true">IF(I110 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I110 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J110" s="20" t="n">
-        <f aca="true">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1),F110)</f>
+        <f aca="true">IF(I110 = "-", -INDIRECT("B" &amp; ROW() - 1),F110)</f>
         <v>0</v>
       </c>
       <c r="K110" s="16" t="n">
@@ -5321,10 +5651,13 @@
     </row>
     <row r="111" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="17" t="str">
-        <f aca="false">IF(E111="","",VLOOKUP(E111, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C111" s="0"/>
+        <f aca="false">IF(E111="","",VLOOKUP(E111, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C111" s="17" t="str">
+        <f aca="false">IF(E111="","",VLOOKUP(E111, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D111" s="0"/>
       <c r="F111" s="18"/>
       <c r="G111" s="19" t="str">
@@ -5332,11 +5665,11 @@
         <v/>
       </c>
       <c r="H111" s="17" t="str">
-        <f aca="true">IF(I111 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I111 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J111" s="20" t="n">
-        <f aca="true">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1),F111)</f>
+        <f aca="true">IF(I111 = "-", -INDIRECT("B" &amp; ROW() - 1),F111)</f>
         <v>0</v>
       </c>
       <c r="K111" s="16" t="n">
@@ -5364,10 +5697,13 @@
     </row>
     <row r="112" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="17" t="str">
-        <f aca="false">IF(E112="","",VLOOKUP(E112, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C112" s="0"/>
+        <f aca="false">IF(E112="","",VLOOKUP(E112, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C112" s="17" t="str">
+        <f aca="false">IF(E112="","",VLOOKUP(E112, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D112" s="0"/>
       <c r="F112" s="18"/>
       <c r="G112" s="19" t="str">
@@ -5375,11 +5711,11 @@
         <v/>
       </c>
       <c r="H112" s="17" t="str">
-        <f aca="true">IF(I112 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I112 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J112" s="20" t="n">
-        <f aca="true">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1),F112)</f>
+        <f aca="true">IF(I112 = "-", -INDIRECT("B" &amp; ROW() - 1),F112)</f>
         <v>0</v>
       </c>
       <c r="K112" s="16" t="n">
@@ -5407,10 +5743,13 @@
     </row>
     <row r="113" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="17" t="str">
-        <f aca="false">IF(E113="","",VLOOKUP(E113, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C113" s="0"/>
+        <f aca="false">IF(E113="","",VLOOKUP(E113, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C113" s="17" t="str">
+        <f aca="false">IF(E113="","",VLOOKUP(E113, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D113" s="0"/>
       <c r="F113" s="18"/>
       <c r="G113" s="19" t="str">
@@ -5418,11 +5757,11 @@
         <v/>
       </c>
       <c r="H113" s="17" t="str">
-        <f aca="true">IF(I113 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I113 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J113" s="20" t="n">
-        <f aca="true">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1),F113)</f>
+        <f aca="true">IF(I113 = "-", -INDIRECT("B" &amp; ROW() - 1),F113)</f>
         <v>0</v>
       </c>
       <c r="K113" s="16" t="n">
@@ -5450,10 +5789,13 @@
     </row>
     <row r="114" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="17" t="str">
-        <f aca="false">IF(E114="","",VLOOKUP(E114, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C114" s="0"/>
+        <f aca="false">IF(E114="","",VLOOKUP(E114, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C114" s="17" t="str">
+        <f aca="false">IF(E114="","",VLOOKUP(E114, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D114" s="0"/>
       <c r="F114" s="18"/>
       <c r="G114" s="19" t="str">
@@ -5461,11 +5803,11 @@
         <v/>
       </c>
       <c r="H114" s="17" t="str">
-        <f aca="true">IF(I114 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I114 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J114" s="20" t="n">
-        <f aca="true">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1),F114)</f>
+        <f aca="true">IF(I114 = "-", -INDIRECT("B" &amp; ROW() - 1),F114)</f>
         <v>0</v>
       </c>
       <c r="K114" s="16" t="n">
@@ -5493,10 +5835,13 @@
     </row>
     <row r="115" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="17" t="str">
-        <f aca="false">IF(E115="","",VLOOKUP(E115, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C115" s="0"/>
+        <f aca="false">IF(E115="","",VLOOKUP(E115, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C115" s="17" t="str">
+        <f aca="false">IF(E115="","",VLOOKUP(E115, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D115" s="0"/>
       <c r="F115" s="18"/>
       <c r="G115" s="19" t="str">
@@ -5504,11 +5849,11 @@
         <v/>
       </c>
       <c r="H115" s="17" t="str">
-        <f aca="true">IF(I115 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I115 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J115" s="20" t="n">
-        <f aca="true">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1),F115)</f>
+        <f aca="true">IF(I115 = "-", -INDIRECT("B" &amp; ROW() - 1),F115)</f>
         <v>0</v>
       </c>
       <c r="K115" s="16" t="n">
@@ -5536,10 +5881,13 @@
     </row>
     <row r="116" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="17" t="str">
-        <f aca="false">IF(E116="","",VLOOKUP(E116, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C116" s="0"/>
+        <f aca="false">IF(E116="","",VLOOKUP(E116, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C116" s="17" t="str">
+        <f aca="false">IF(E116="","",VLOOKUP(E116, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D116" s="0"/>
       <c r="F116" s="18"/>
       <c r="G116" s="19" t="str">
@@ -5547,11 +5895,11 @@
         <v/>
       </c>
       <c r="H116" s="17" t="str">
-        <f aca="true">IF(I116 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I116 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J116" s="20" t="n">
-        <f aca="true">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1),F116)</f>
+        <f aca="true">IF(I116 = "-", -INDIRECT("B" &amp; ROW() - 1),F116)</f>
         <v>0</v>
       </c>
       <c r="K116" s="16" t="n">
@@ -5579,10 +5927,13 @@
     </row>
     <row r="117" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="17" t="str">
-        <f aca="false">IF(E117="","",VLOOKUP(E117, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C117" s="0"/>
+        <f aca="false">IF(E117="","",VLOOKUP(E117, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C117" s="17" t="str">
+        <f aca="false">IF(E117="","",VLOOKUP(E117, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D117" s="0"/>
       <c r="F117" s="18"/>
       <c r="G117" s="19" t="str">
@@ -5590,11 +5941,11 @@
         <v/>
       </c>
       <c r="H117" s="17" t="str">
-        <f aca="true">IF(I117 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I117 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J117" s="20" t="n">
-        <f aca="true">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1),F117)</f>
+        <f aca="true">IF(I117 = "-", -INDIRECT("B" &amp; ROW() - 1),F117)</f>
         <v>0</v>
       </c>
       <c r="K117" s="16" t="n">
@@ -5622,10 +5973,13 @@
     </row>
     <row r="118" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="17" t="str">
-        <f aca="false">IF(E118="","",VLOOKUP(E118, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C118" s="0"/>
+        <f aca="false">IF(E118="","",VLOOKUP(E118, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C118" s="17" t="str">
+        <f aca="false">IF(E118="","",VLOOKUP(E118, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D118" s="0"/>
       <c r="F118" s="18"/>
       <c r="G118" s="19" t="str">
@@ -5633,11 +5987,11 @@
         <v/>
       </c>
       <c r="H118" s="17" t="str">
-        <f aca="true">IF(I118 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I118 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J118" s="20" t="n">
-        <f aca="true">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1),F118)</f>
+        <f aca="true">IF(I118 = "-", -INDIRECT("B" &amp; ROW() - 1),F118)</f>
         <v>0</v>
       </c>
       <c r="K118" s="16" t="n">
@@ -5665,10 +6019,13 @@
     </row>
     <row r="119" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="17" t="str">
-        <f aca="false">IF(E119="","",VLOOKUP(E119, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C119" s="0"/>
+        <f aca="false">IF(E119="","",VLOOKUP(E119, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C119" s="17" t="str">
+        <f aca="false">IF(E119="","",VLOOKUP(E119, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D119" s="0"/>
       <c r="F119" s="18"/>
       <c r="G119" s="19" t="str">
@@ -5676,11 +6033,11 @@
         <v/>
       </c>
       <c r="H119" s="17" t="str">
-        <f aca="true">IF(I119 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I119 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J119" s="20" t="n">
-        <f aca="true">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1),F119)</f>
+        <f aca="true">IF(I119 = "-", -INDIRECT("B" &amp; ROW() - 1),F119)</f>
         <v>0</v>
       </c>
       <c r="K119" s="16" t="n">
@@ -5708,10 +6065,13 @@
     </row>
     <row r="120" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="17" t="str">
-        <f aca="false">IF(E120="","",VLOOKUP(E120, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C120" s="0"/>
+        <f aca="false">IF(E120="","",VLOOKUP(E120, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C120" s="17" t="str">
+        <f aca="false">IF(E120="","",VLOOKUP(E120, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D120" s="0"/>
       <c r="F120" s="18"/>
       <c r="G120" s="19" t="str">
@@ -5719,11 +6079,11 @@
         <v/>
       </c>
       <c r="H120" s="17" t="str">
-        <f aca="true">IF(I120 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I120 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J120" s="20" t="n">
-        <f aca="true">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1),F120)</f>
+        <f aca="true">IF(I120 = "-", -INDIRECT("B" &amp; ROW() - 1),F120)</f>
         <v>0</v>
       </c>
       <c r="K120" s="16" t="n">
@@ -5751,10 +6111,13 @@
     </row>
     <row r="121" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="17" t="str">
-        <f aca="false">IF(E121="","",VLOOKUP(E121, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C121" s="0"/>
+        <f aca="false">IF(E121="","",VLOOKUP(E121, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C121" s="17" t="str">
+        <f aca="false">IF(E121="","",VLOOKUP(E121, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D121" s="0"/>
       <c r="F121" s="18"/>
       <c r="G121" s="19" t="str">
@@ -5762,11 +6125,11 @@
         <v/>
       </c>
       <c r="H121" s="17" t="str">
-        <f aca="true">IF(I121 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I121 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J121" s="20" t="n">
-        <f aca="true">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1),F121)</f>
+        <f aca="true">IF(I121 = "-", -INDIRECT("B" &amp; ROW() - 1),F121)</f>
         <v>0</v>
       </c>
       <c r="K121" s="16" t="n">
@@ -5794,10 +6157,13 @@
     </row>
     <row r="122" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="17" t="str">
-        <f aca="false">IF(E122="","",VLOOKUP(E122, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C122" s="0"/>
+        <f aca="false">IF(E122="","",VLOOKUP(E122, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C122" s="17" t="str">
+        <f aca="false">IF(E122="","",VLOOKUP(E122, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D122" s="0"/>
       <c r="F122" s="18"/>
       <c r="G122" s="19" t="str">
@@ -5805,11 +6171,11 @@
         <v/>
       </c>
       <c r="H122" s="17" t="str">
-        <f aca="true">IF(I122 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I122 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J122" s="20" t="n">
-        <f aca="true">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1),F122)</f>
+        <f aca="true">IF(I122 = "-", -INDIRECT("B" &amp; ROW() - 1),F122)</f>
         <v>0</v>
       </c>
       <c r="K122" s="16" t="n">
@@ -5837,10 +6203,13 @@
     </row>
     <row r="123" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="17" t="str">
-        <f aca="false">IF(E123="","",VLOOKUP(E123, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C123" s="0"/>
+        <f aca="false">IF(E123="","",VLOOKUP(E123, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C123" s="17" t="str">
+        <f aca="false">IF(E123="","",VLOOKUP(E123, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D123" s="0"/>
       <c r="F123" s="18"/>
       <c r="G123" s="19" t="str">
@@ -5848,11 +6217,11 @@
         <v/>
       </c>
       <c r="H123" s="17" t="str">
-        <f aca="true">IF(I123 = "-", INDIRECT("C" &amp; ROW() - 1),"")</f>
+        <f aca="true">IF(I123 = "-", INDIRECT("B" &amp; ROW() - 1),"")</f>
         <v/>
       </c>
       <c r="J123" s="20" t="n">
-        <f aca="true">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1),F123)</f>
+        <f aca="true">IF(I123 = "-", -INDIRECT("B" &amp; ROW() - 1),F123)</f>
         <v>0</v>
       </c>
       <c r="K123" s="16" t="n">
@@ -5880,10 +6249,13 @@
     </row>
     <row r="124" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="17" t="str">
-        <f aca="false">IF(E124="","",VLOOKUP(E124, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C124" s="0"/>
+        <f aca="false">IF(E124="","",VLOOKUP(E124, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C124" s="17" t="str">
+        <f aca="false">IF(E124="","",VLOOKUP(E124, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D124" s="0"/>
       <c r="F124" s="18"/>
       <c r="G124" s="19" t="str">
@@ -5907,10 +6279,13 @@
     </row>
     <row r="125" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="17" t="str">
-        <f aca="false">IF(E125="","",VLOOKUP(E125, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C125" s="0"/>
+        <f aca="false">IF(E125="","",VLOOKUP(E125, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C125" s="17" t="str">
+        <f aca="false">IF(E125="","",VLOOKUP(E125, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D125" s="0"/>
       <c r="F125" s="18"/>
       <c r="G125" s="19" t="str">
@@ -5934,10 +6309,13 @@
     </row>
     <row r="126" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="17" t="str">
-        <f aca="false">IF(E126="","",VLOOKUP(E126, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C126" s="0"/>
+        <f aca="false">IF(E126="","",VLOOKUP(E126, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C126" s="17" t="str">
+        <f aca="false">IF(E126="","",VLOOKUP(E126, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D126" s="0"/>
       <c r="F126" s="18"/>
       <c r="G126" s="19" t="str">
@@ -5961,10 +6339,13 @@
     </row>
     <row r="127" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="17" t="str">
-        <f aca="false">IF(E127="","",VLOOKUP(E127, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C127" s="0"/>
+        <f aca="false">IF(E127="","",VLOOKUP(E127, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C127" s="17" t="str">
+        <f aca="false">IF(E127="","",VLOOKUP(E127, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D127" s="0"/>
       <c r="F127" s="18"/>
       <c r="G127" s="19" t="str">
@@ -5988,10 +6369,13 @@
     </row>
     <row r="128" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="17" t="str">
-        <f aca="false">IF(E128="","",VLOOKUP(E128, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C128" s="0"/>
+        <f aca="false">IF(E128="","",VLOOKUP(E128, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C128" s="17" t="str">
+        <f aca="false">IF(E128="","",VLOOKUP(E128, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D128" s="0"/>
       <c r="F128" s="18"/>
       <c r="G128" s="19" t="str">
@@ -6015,10 +6399,13 @@
     </row>
     <row r="129" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="17" t="str">
-        <f aca="false">IF(E129="","",VLOOKUP(E129, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C129" s="0"/>
+        <f aca="false">IF(E129="","",VLOOKUP(E129, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C129" s="17" t="str">
+        <f aca="false">IF(E129="","",VLOOKUP(E129, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D129" s="0"/>
       <c r="F129" s="18"/>
       <c r="G129" s="19" t="str">
@@ -6042,10 +6429,13 @@
     </row>
     <row r="130" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="17" t="str">
-        <f aca="false">IF(E130="","",VLOOKUP(E130, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C130" s="0"/>
+        <f aca="false">IF(E130="","",VLOOKUP(E130, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C130" s="17" t="str">
+        <f aca="false">IF(E130="","",VLOOKUP(E130, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D130" s="0"/>
       <c r="F130" s="18"/>
       <c r="G130" s="19" t="str">
@@ -6069,10 +6459,13 @@
     </row>
     <row r="131" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="17" t="str">
-        <f aca="false">IF(E131="","",VLOOKUP(E131, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C131" s="0"/>
+        <f aca="false">IF(E131="","",VLOOKUP(E131, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C131" s="17" t="str">
+        <f aca="false">IF(E131="","",VLOOKUP(E131, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D131" s="0"/>
       <c r="F131" s="18"/>
       <c r="G131" s="19" t="str">
@@ -6096,10 +6489,13 @@
     </row>
     <row r="132" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="17" t="str">
-        <f aca="false">IF(E132="","",VLOOKUP(E132, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C132" s="0"/>
+        <f aca="false">IF(E132="","",VLOOKUP(E132, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C132" s="17" t="str">
+        <f aca="false">IF(E132="","",VLOOKUP(E132, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D132" s="0"/>
       <c r="F132" s="18"/>
       <c r="G132" s="19" t="str">
@@ -6123,10 +6519,13 @@
     </row>
     <row r="133" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="17" t="str">
-        <f aca="false">IF(E133="","",VLOOKUP(E133, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C133" s="0"/>
+        <f aca="false">IF(E133="","",VLOOKUP(E133, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C133" s="17" t="str">
+        <f aca="false">IF(E133="","",VLOOKUP(E133, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D133" s="0"/>
       <c r="F133" s="18"/>
       <c r="G133" s="19" t="str">
@@ -6150,10 +6549,13 @@
     </row>
     <row r="134" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="17" t="str">
-        <f aca="false">IF(E134="","",VLOOKUP(E134, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C134" s="0"/>
+        <f aca="false">IF(E134="","",VLOOKUP(E134, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C134" s="17" t="str">
+        <f aca="false">IF(E134="","",VLOOKUP(E134, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D134" s="0"/>
       <c r="F134" s="18"/>
       <c r="G134" s="19" t="str">
@@ -6177,10 +6579,13 @@
     </row>
     <row r="135" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="17" t="str">
-        <f aca="false">IF(E135="","",VLOOKUP(E135, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C135" s="0"/>
+        <f aca="false">IF(E135="","",VLOOKUP(E135, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C135" s="17" t="str">
+        <f aca="false">IF(E135="","",VLOOKUP(E135, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D135" s="0"/>
       <c r="F135" s="18"/>
       <c r="G135" s="19" t="str">
@@ -6204,10 +6609,13 @@
     </row>
     <row r="136" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="17" t="str">
-        <f aca="false">IF(E136="","",VLOOKUP(E136, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C136" s="0"/>
+        <f aca="false">IF(E136="","",VLOOKUP(E136, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C136" s="17" t="str">
+        <f aca="false">IF(E136="","",VLOOKUP(E136, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D136" s="0"/>
       <c r="F136" s="18"/>
       <c r="G136" s="19" t="str">
@@ -6231,10 +6639,13 @@
     </row>
     <row r="137" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="17" t="str">
-        <f aca="false">IF(E137="","",VLOOKUP(E137, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C137" s="0"/>
+        <f aca="false">IF(E137="","",VLOOKUP(E137, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C137" s="17" t="str">
+        <f aca="false">IF(E137="","",VLOOKUP(E137, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D137" s="0"/>
       <c r="F137" s="18"/>
       <c r="G137" s="19" t="str">
@@ -6258,10 +6669,13 @@
     </row>
     <row r="138" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="17" t="str">
-        <f aca="false">IF(E138="","",VLOOKUP(E138, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C138" s="0"/>
+        <f aca="false">IF(E138="","",VLOOKUP(E138, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C138" s="17" t="str">
+        <f aca="false">IF(E138="","",VLOOKUP(E138, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D138" s="0"/>
       <c r="F138" s="18"/>
       <c r="G138" s="19" t="str">
@@ -6285,10 +6699,13 @@
     </row>
     <row r="139" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="17" t="str">
-        <f aca="false">IF(E139="","",VLOOKUP(E139, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C139" s="0"/>
+        <f aca="false">IF(E139="","",VLOOKUP(E139, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C139" s="17" t="str">
+        <f aca="false">IF(E139="","",VLOOKUP(E139, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D139" s="0"/>
       <c r="F139" s="18"/>
       <c r="G139" s="19" t="str">
@@ -6312,10 +6729,13 @@
     </row>
     <row r="140" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="17" t="str">
-        <f aca="false">IF(E140="","",VLOOKUP(E140, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C140" s="0"/>
+        <f aca="false">IF(E140="","",VLOOKUP(E140, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C140" s="17" t="str">
+        <f aca="false">IF(E140="","",VLOOKUP(E140, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D140" s="0"/>
       <c r="F140" s="18"/>
       <c r="G140" s="19" t="str">
@@ -6339,10 +6759,13 @@
     </row>
     <row r="141" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="17" t="str">
-        <f aca="false">IF(E141="","",VLOOKUP(E141, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C141" s="0"/>
+        <f aca="false">IF(E141="","",VLOOKUP(E141, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C141" s="17" t="str">
+        <f aca="false">IF(E141="","",VLOOKUP(E141, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D141" s="0"/>
       <c r="F141" s="18"/>
       <c r="G141" s="19" t="str">
@@ -6366,10 +6789,13 @@
     </row>
     <row r="142" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="17" t="str">
-        <f aca="false">IF(E142="","",VLOOKUP(E142, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C142" s="0"/>
+        <f aca="false">IF(E142="","",VLOOKUP(E142, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C142" s="17" t="str">
+        <f aca="false">IF(E142="","",VLOOKUP(E142, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D142" s="0"/>
       <c r="F142" s="18"/>
       <c r="G142" s="19" t="str">
@@ -6393,10 +6819,13 @@
     </row>
     <row r="143" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="17" t="str">
-        <f aca="false">IF(E143="","",VLOOKUP(E143, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C143" s="0"/>
+        <f aca="false">IF(E143="","",VLOOKUP(E143, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C143" s="17" t="str">
+        <f aca="false">IF(E143="","",VLOOKUP(E143, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D143" s="0"/>
       <c r="F143" s="18"/>
       <c r="G143" s="19" t="str">
@@ -6420,10 +6849,13 @@
     </row>
     <row r="144" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="17" t="str">
-        <f aca="false">IF(E144="","",VLOOKUP(E144, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C144" s="0"/>
+        <f aca="false">IF(E144="","",VLOOKUP(E144, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C144" s="17" t="str">
+        <f aca="false">IF(E144="","",VLOOKUP(E144, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D144" s="0"/>
       <c r="F144" s="18"/>
       <c r="G144" s="19" t="str">
@@ -6447,10 +6879,13 @@
     </row>
     <row r="145" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="17" t="str">
-        <f aca="false">IF(E145="","",VLOOKUP(E145, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C145" s="0"/>
+        <f aca="false">IF(E145="","",VLOOKUP(E145, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C145" s="17" t="str">
+        <f aca="false">IF(E145="","",VLOOKUP(E145, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D145" s="0"/>
       <c r="F145" s="18"/>
       <c r="G145" s="19" t="str">
@@ -6474,10 +6909,13 @@
     </row>
     <row r="146" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="17" t="str">
-        <f aca="false">IF(E146="","",VLOOKUP(E146, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C146" s="0"/>
+        <f aca="false">IF(E146="","",VLOOKUP(E146, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C146" s="17" t="str">
+        <f aca="false">IF(E146="","",VLOOKUP(E146, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D146" s="0"/>
       <c r="F146" s="18"/>
       <c r="G146" s="19" t="str">
@@ -6501,10 +6939,13 @@
     </row>
     <row r="147" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="17" t="str">
-        <f aca="false">IF(E147="","",VLOOKUP(E147, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C147" s="0"/>
+        <f aca="false">IF(E147="","",VLOOKUP(E147, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C147" s="17" t="str">
+        <f aca="false">IF(E147="","",VLOOKUP(E147, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D147" s="0"/>
       <c r="F147" s="18"/>
       <c r="G147" s="19" t="str">
@@ -6528,10 +6969,13 @@
     </row>
     <row r="148" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="17" t="str">
-        <f aca="false">IF(E148="","",VLOOKUP(E148, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C148" s="0"/>
+        <f aca="false">IF(E148="","",VLOOKUP(E148, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C148" s="17" t="str">
+        <f aca="false">IF(E148="","",VLOOKUP(E148, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D148" s="0"/>
       <c r="F148" s="18"/>
       <c r="G148" s="19" t="str">
@@ -6555,10 +6999,13 @@
     </row>
     <row r="149" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="17" t="str">
-        <f aca="false">IF(E149="","",VLOOKUP(E149, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C149" s="0"/>
+        <f aca="false">IF(E149="","",VLOOKUP(E149, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C149" s="17" t="str">
+        <f aca="false">IF(E149="","",VLOOKUP(E149, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D149" s="0"/>
       <c r="F149" s="18"/>
       <c r="G149" s="19" t="str">
@@ -6582,10 +7029,13 @@
     </row>
     <row r="150" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="17" t="str">
-        <f aca="false">IF(E150="","",VLOOKUP(E150, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C150" s="0"/>
+        <f aca="false">IF(E150="","",VLOOKUP(E150, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C150" s="17" t="str">
+        <f aca="false">IF(E150="","",VLOOKUP(E150, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D150" s="0"/>
       <c r="F150" s="18"/>
       <c r="G150" s="19" t="str">
@@ -6609,10 +7059,13 @@
     </row>
     <row r="151" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="17" t="str">
-        <f aca="false">IF(E151="","",VLOOKUP(E151, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C151" s="0"/>
+        <f aca="false">IF(E151="","",VLOOKUP(E151, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C151" s="17" t="str">
+        <f aca="false">IF(E151="","",VLOOKUP(E151, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D151" s="0"/>
       <c r="F151" s="18"/>
       <c r="G151" s="19" t="str">
@@ -6636,10 +7089,13 @@
     </row>
     <row r="152" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="17" t="str">
-        <f aca="false">IF(E152="","",VLOOKUP(E152, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C152" s="0"/>
+        <f aca="false">IF(E152="","",VLOOKUP(E152, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C152" s="17" t="str">
+        <f aca="false">IF(E152="","",VLOOKUP(E152, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D152" s="0"/>
       <c r="F152" s="18"/>
       <c r="G152" s="19" t="str">
@@ -6663,10 +7119,13 @@
     </row>
     <row r="153" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="17" t="str">
-        <f aca="false">IF(E153="","",VLOOKUP(E153, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C153" s="0"/>
+        <f aca="false">IF(E153="","",VLOOKUP(E153, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C153" s="17" t="str">
+        <f aca="false">IF(E153="","",VLOOKUP(E153, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D153" s="0"/>
       <c r="F153" s="18"/>
       <c r="G153" s="19" t="str">
@@ -6690,10 +7149,13 @@
     </row>
     <row r="154" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="17" t="str">
-        <f aca="false">IF(E154="","",VLOOKUP(E154, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C154" s="0"/>
+        <f aca="false">IF(E154="","",VLOOKUP(E154, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C154" s="17" t="str">
+        <f aca="false">IF(E154="","",VLOOKUP(E154, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D154" s="0"/>
       <c r="F154" s="18"/>
       <c r="G154" s="19" t="str">
@@ -6717,10 +7179,13 @@
     </row>
     <row r="155" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="17" t="str">
-        <f aca="false">IF(E155="","",VLOOKUP(E155, 'SKU Масло'!$A$1:$B$50, 2, 0))</f>
-        <v/>
-      </c>
-      <c r="C155" s="0"/>
+        <f aca="false">IF(E155="","",VLOOKUP(E155, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
+        <v/>
+      </c>
+      <c r="C155" s="17" t="str">
+        <f aca="false">IF(E155="","",VLOOKUP(E155, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="D155" s="0"/>
       <c r="F155" s="18"/>
       <c r="G155" s="19" t="str">
@@ -6744,6 +7209,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="23"/>
+      <c r="C156" s="17" t="str">
+        <f aca="false">IF(E156="","",VLOOKUP(E156, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F156" s="18"/>
       <c r="G156" s="24" t="str">
         <f aca="true">IF(I156="","",(INDIRECT("N" &amp; ROW() - 1) - M156))</f>
@@ -6764,6 +7233,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="23"/>
+      <c r="C157" s="17" t="str">
+        <f aca="false">IF(E157="","",VLOOKUP(E157, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F157" s="18"/>
       <c r="G157" s="24" t="str">
         <f aca="true">IF(I157="","",(INDIRECT("N" &amp; ROW() - 1) - M157))</f>
@@ -6784,6 +7257,10 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="23"/>
+      <c r="C158" s="17" t="str">
+        <f aca="false">IF(E158="","",VLOOKUP(E158, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F158" s="18"/>
       <c r="G158" s="24" t="str">
         <f aca="true">IF(I158="","",(INDIRECT("N" &amp; ROW() - 1) - M158))</f>
@@ -6804,6 +7281,10 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="23"/>
+      <c r="C159" s="17" t="str">
+        <f aca="false">IF(E159="","",VLOOKUP(E159, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F159" s="18"/>
       <c r="G159" s="24" t="str">
         <f aca="true">IF(I159="","",(INDIRECT("N" &amp; ROW() - 1) - M159))</f>
@@ -6824,6 +7305,10 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="23"/>
+      <c r="C160" s="17" t="str">
+        <f aca="false">IF(E160="","",VLOOKUP(E160, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F160" s="18"/>
       <c r="G160" s="24" t="str">
         <f aca="true">IF(I160="","",(INDIRECT("N" &amp; ROW() - 1) - M160))</f>
@@ -6844,6 +7329,10 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="23"/>
+      <c r="C161" s="17" t="str">
+        <f aca="false">IF(E161="","",VLOOKUP(E161, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F161" s="18"/>
       <c r="G161" s="24" t="str">
         <f aca="true">IF(I161="","",(INDIRECT("N" &amp; ROW() - 1) - M161))</f>
@@ -6864,6 +7353,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="23"/>
+      <c r="C162" s="17" t="str">
+        <f aca="false">IF(E162="","",VLOOKUP(E162, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F162" s="18"/>
       <c r="G162" s="24" t="str">
         <f aca="true">IF(I162="","",(INDIRECT("N" &amp; ROW() - 1) - M162))</f>
@@ -6884,6 +7377,10 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="23"/>
+      <c r="C163" s="17" t="str">
+        <f aca="false">IF(E163="","",VLOOKUP(E163, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F163" s="18"/>
       <c r="G163" s="24" t="str">
         <f aca="true">IF(I163="","",(INDIRECT("N" &amp; ROW() - 1) - M163))</f>
@@ -6904,6 +7401,10 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="23"/>
+      <c r="C164" s="17" t="str">
+        <f aca="false">IF(E164="","",VLOOKUP(E164, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F164" s="18"/>
       <c r="G164" s="24" t="str">
         <f aca="true">IF(I164="","",(INDIRECT("N" &amp; ROW() - 1) - M164))</f>
@@ -6924,6 +7425,10 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="23"/>
+      <c r="C165" s="17" t="str">
+        <f aca="false">IF(E165="","",VLOOKUP(E165, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F165" s="18"/>
       <c r="G165" s="24" t="str">
         <f aca="true">IF(I165="","",(INDIRECT("N" &amp; ROW() - 1) - M165))</f>
@@ -6944,6 +7449,10 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="23"/>
+      <c r="C166" s="17" t="str">
+        <f aca="false">IF(E166="","",VLOOKUP(E166, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F166" s="18"/>
       <c r="G166" s="24" t="str">
         <f aca="true">IF(I166="","",(INDIRECT("N" &amp; ROW() - 1) - M166))</f>
@@ -6960,6 +7469,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="23"/>
+      <c r="C167" s="17" t="str">
+        <f aca="false">IF(E167="","",VLOOKUP(E167, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F167" s="18"/>
       <c r="G167" s="24" t="str">
         <f aca="true">IF(I167="","",(INDIRECT("N" &amp; ROW() - 1) - M167))</f>
@@ -6976,6 +7489,10 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="23"/>
+      <c r="C168" s="17" t="str">
+        <f aca="false">IF(E168="","",VLOOKUP(E168, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F168" s="18"/>
       <c r="G168" s="24" t="str">
         <f aca="true">IF(I168="","",(INDIRECT("N" &amp; ROW() - 1) - M168))</f>
@@ -6992,6 +7509,10 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="23"/>
+      <c r="C169" s="17" t="str">
+        <f aca="false">IF(E169="","",VLOOKUP(E169, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F169" s="18"/>
       <c r="G169" s="24" t="str">
         <f aca="true">IF(I169="","",(INDIRECT("N" &amp; ROW() - 1) - M169))</f>
@@ -7008,6 +7529,10 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="23"/>
+      <c r="C170" s="17" t="str">
+        <f aca="false">IF(E170="","",VLOOKUP(E170, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F170" s="18"/>
       <c r="G170" s="24" t="str">
         <f aca="true">IF(I170="","",(INDIRECT("N" &amp; ROW() - 1) - M170))</f>
@@ -7024,6 +7549,10 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="23"/>
+      <c r="C171" s="17" t="str">
+        <f aca="false">IF(E171="","",VLOOKUP(E171, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F171" s="18"/>
       <c r="G171" s="24" t="str">
         <f aca="true">IF(I171="","",(INDIRECT("N" &amp; ROW() - 1) - M171))</f>
@@ -7040,6 +7569,10 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="23"/>
+      <c r="C172" s="17" t="str">
+        <f aca="false">IF(E172="","",VLOOKUP(E172, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F172" s="18"/>
       <c r="G172" s="24" t="str">
         <f aca="true">IF(I172="","",(INDIRECT("N" &amp; ROW() - 1) - M172))</f>
@@ -7056,6 +7589,10 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="23"/>
+      <c r="C173" s="17" t="str">
+        <f aca="false">IF(E173="","",VLOOKUP(E173, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F173" s="18"/>
       <c r="G173" s="24" t="str">
         <f aca="true">IF(I173="","",(INDIRECT("N" &amp; ROW() - 1) - M173))</f>
@@ -7072,6 +7609,10 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="23"/>
+      <c r="C174" s="17" t="str">
+        <f aca="false">IF(E174="","",VLOOKUP(E174, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F174" s="18"/>
       <c r="G174" s="24" t="str">
         <f aca="true">IF(I174="","",(INDIRECT("N" &amp; ROW() - 1) - M174))</f>
@@ -7088,6 +7629,10 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="23"/>
+      <c r="C175" s="17" t="str">
+        <f aca="false">IF(E175="","",VLOOKUP(E175, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F175" s="18"/>
       <c r="G175" s="24" t="str">
         <f aca="true">IF(I175="","",(INDIRECT("N" &amp; ROW() - 1) - M175))</f>
@@ -7104,6 +7649,10 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="23"/>
+      <c r="C176" s="17" t="str">
+        <f aca="false">IF(E176="","",VLOOKUP(E176, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F176" s="18"/>
       <c r="G176" s="24" t="str">
         <f aca="true">IF(I176="","",(INDIRECT("N" &amp; ROW() - 1) - M176))</f>
@@ -7120,6 +7669,10 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="23"/>
+      <c r="C177" s="17" t="str">
+        <f aca="false">IF(E177="","",VLOOKUP(E177, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F177" s="18"/>
       <c r="G177" s="24" t="str">
         <f aca="true">IF(I177="","",(INDIRECT("N" &amp; ROW() - 1) - M177))</f>
@@ -7136,6 +7689,10 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="23"/>
+      <c r="C178" s="17" t="str">
+        <f aca="false">IF(E178="","",VLOOKUP(E178, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F178" s="18"/>
       <c r="G178" s="24" t="str">
         <f aca="true">IF(I178="","",(INDIRECT("N" &amp; ROW() - 1) - M178))</f>
@@ -7152,6 +7709,10 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="23"/>
+      <c r="C179" s="17" t="str">
+        <f aca="false">IF(E179="","",VLOOKUP(E179, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F179" s="18"/>
       <c r="G179" s="24" t="str">
         <f aca="true">IF(I179="","",(INDIRECT("N" &amp; ROW() - 1) - M179))</f>
@@ -7168,6 +7729,10 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="23"/>
+      <c r="C180" s="17" t="str">
+        <f aca="false">IF(E180="","",VLOOKUP(E180, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F180" s="18"/>
       <c r="G180" s="24" t="str">
         <f aca="true">IF(I180="","",(INDIRECT("N" &amp; ROW() - 1) - M180))</f>
@@ -7184,6 +7749,10 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="23"/>
+      <c r="C181" s="17" t="str">
+        <f aca="false">IF(E181="","",VLOOKUP(E181, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F181" s="18"/>
       <c r="G181" s="24" t="str">
         <f aca="true">IF(I181="","",(INDIRECT("N" &amp; ROW() - 1) - M181))</f>
@@ -7200,6 +7769,10 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="23"/>
+      <c r="C182" s="17" t="str">
+        <f aca="false">IF(E182="","",VLOOKUP(E182, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F182" s="18"/>
       <c r="G182" s="24" t="str">
         <f aca="true">IF(I182="","",(INDIRECT("N" &amp; ROW() - 1) - M182))</f>
@@ -7216,6 +7789,10 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="23"/>
+      <c r="C183" s="17" t="str">
+        <f aca="false">IF(E183="","",VLOOKUP(E183, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F183" s="18"/>
       <c r="G183" s="24" t="str">
         <f aca="true">IF(I183="","",(INDIRECT("N" &amp; ROW() - 1) - M183))</f>
@@ -7232,6 +7809,10 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="23"/>
+      <c r="C184" s="17" t="str">
+        <f aca="false">IF(E184="","",VLOOKUP(E184, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F184" s="18"/>
       <c r="G184" s="24" t="str">
         <f aca="true">IF(I184="","",(INDIRECT("N" &amp; ROW() - 1) - M184))</f>
@@ -7248,6 +7829,10 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="23"/>
+      <c r="C185" s="17" t="str">
+        <f aca="false">IF(E185="","",VLOOKUP(E185, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F185" s="18"/>
       <c r="G185" s="24" t="str">
         <f aca="true">IF(I185="","",(INDIRECT("N" &amp; ROW() - 1) - M185))</f>
@@ -7261,6 +7846,10 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="23"/>
+      <c r="C186" s="17" t="str">
+        <f aca="false">IF(E186="","",VLOOKUP(E186, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F186" s="18"/>
       <c r="G186" s="24" t="str">
         <f aca="true">IF(I186="","",(INDIRECT("N" &amp; ROW() - 1) - M186))</f>
@@ -7274,6 +7863,10 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="23"/>
+      <c r="C187" s="17" t="str">
+        <f aca="false">IF(E187="","",VLOOKUP(E187, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F187" s="18"/>
       <c r="G187" s="24" t="str">
         <f aca="true">IF(I187="","",(INDIRECT("N" &amp; ROW() - 1) - M187))</f>
@@ -7287,6 +7880,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="23"/>
+      <c r="C188" s="17" t="str">
+        <f aca="false">IF(E188="","",VLOOKUP(E188, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F188" s="18"/>
       <c r="G188" s="24" t="str">
         <f aca="true">IF(I188="","",(INDIRECT("N" &amp; ROW() - 1) - M188))</f>
@@ -7300,6 +7897,10 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="23"/>
+      <c r="C189" s="17" t="str">
+        <f aca="false">IF(E189="","",VLOOKUP(E189, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F189" s="18"/>
       <c r="G189" s="24" t="str">
         <f aca="true">IF(I189="","",(INDIRECT("N" &amp; ROW() - 1) - M189))</f>
@@ -7313,6 +7914,10 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="23"/>
+      <c r="C190" s="17" t="str">
+        <f aca="false">IF(E190="","",VLOOKUP(E190, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F190" s="18"/>
       <c r="G190" s="24" t="str">
         <f aca="true">IF(I190="","",(INDIRECT("N" &amp; ROW() - 1) - M190))</f>
@@ -7326,6 +7931,10 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="23"/>
+      <c r="C191" s="17" t="str">
+        <f aca="false">IF(E191="","",VLOOKUP(E191, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F191" s="18"/>
       <c r="G191" s="24" t="str">
         <f aca="true">IF(I191="","",(INDIRECT("N" &amp; ROW() - 1) - M191))</f>
@@ -7339,6 +7948,10 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="23"/>
+      <c r="C192" s="17" t="str">
+        <f aca="false">IF(E192="","",VLOOKUP(E192, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F192" s="18"/>
       <c r="G192" s="24" t="str">
         <f aca="true">IF(I192="","",(INDIRECT("N" &amp; ROW() - 1) - M192))</f>
@@ -7352,6 +7965,10 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="23"/>
+      <c r="C193" s="17" t="str">
+        <f aca="false">IF(E193="","",VLOOKUP(E193, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F193" s="18"/>
       <c r="G193" s="24" t="str">
         <f aca="true">IF(I193="","",(INDIRECT("N" &amp; ROW() - 1) - M193))</f>
@@ -7365,6 +7982,10 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="23"/>
+      <c r="C194" s="17" t="str">
+        <f aca="false">IF(E194="","",VLOOKUP(E194, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F194" s="18"/>
       <c r="G194" s="24" t="str">
         <f aca="true">IF(I194="","",(INDIRECT("N" &amp; ROW() - 1) - M194))</f>
@@ -7378,6 +7999,10 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="23"/>
+      <c r="C195" s="17" t="str">
+        <f aca="false">IF(E195="","",VLOOKUP(E195, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F195" s="18"/>
       <c r="G195" s="24" t="str">
         <f aca="true">IF(I195="","",(INDIRECT("N" &amp; ROW() - 1) - M195))</f>
@@ -7391,6 +8016,10 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="23"/>
+      <c r="C196" s="17" t="str">
+        <f aca="false">IF(E196="","",VLOOKUP(E196, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F196" s="18"/>
       <c r="G196" s="24" t="str">
         <f aca="true">IF(I196="","",(INDIRECT("N" &amp; ROW() - 1) - M196))</f>
@@ -7404,6 +8033,10 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="23"/>
+      <c r="C197" s="17" t="str">
+        <f aca="false">IF(E197="","",VLOOKUP(E197, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F197" s="18"/>
       <c r="G197" s="24" t="str">
         <f aca="true">IF(I197="","",(INDIRECT("N" &amp; ROW() - 1) - M197))</f>
@@ -7417,6 +8050,10 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="23"/>
+      <c r="C198" s="17" t="str">
+        <f aca="false">IF(E198="","",VLOOKUP(E198, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F198" s="18"/>
       <c r="G198" s="27"/>
       <c r="Q198" s="26"/>
@@ -7427,6 +8064,10 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="23"/>
+      <c r="C199" s="17" t="str">
+        <f aca="false">IF(E199="","",VLOOKUP(E199, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F199" s="18"/>
       <c r="G199" s="27"/>
       <c r="Q199" s="26"/>
@@ -7437,6 +8078,10 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="23"/>
+      <c r="C200" s="17" t="str">
+        <f aca="false">IF(E200="","",VLOOKUP(E200, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F200" s="18"/>
       <c r="G200" s="27"/>
       <c r="Q200" s="26"/>
@@ -7447,6 +8092,10 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="23"/>
+      <c r="C201" s="17" t="str">
+        <f aca="false">IF(E201="","",VLOOKUP(E201, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F201" s="18"/>
       <c r="G201" s="27"/>
       <c r="Q201" s="26"/>
@@ -7457,6 +8106,10 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="23"/>
+      <c r="C202" s="17" t="str">
+        <f aca="false">IF(E202="","",VLOOKUP(E202, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F202" s="18"/>
       <c r="G202" s="27"/>
       <c r="Q202" s="26"/>
@@ -7467,6 +8120,10 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="23"/>
+      <c r="C203" s="17" t="str">
+        <f aca="false">IF(E203="","",VLOOKUP(E203, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F203" s="18"/>
       <c r="G203" s="27"/>
       <c r="Q203" s="26"/>
@@ -7477,6 +8134,10 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="23"/>
+      <c r="C204" s="17" t="str">
+        <f aca="false">IF(E204="","",VLOOKUP(E204, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F204" s="18"/>
       <c r="G204" s="27"/>
       <c r="Q204" s="26"/>
@@ -7487,6 +8148,10 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="23"/>
+      <c r="C205" s="17" t="str">
+        <f aca="false">IF(E205="","",VLOOKUP(E205, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F205" s="18"/>
       <c r="G205" s="27"/>
       <c r="Q205" s="26"/>
@@ -7497,6 +8162,10 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="23"/>
+      <c r="C206" s="17" t="str">
+        <f aca="false">IF(E206="","",VLOOKUP(E206, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F206" s="18"/>
       <c r="G206" s="27"/>
       <c r="Q206" s="26"/>
@@ -7507,6 +8176,10 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="23"/>
+      <c r="C207" s="17" t="str">
+        <f aca="false">IF(E207="","",VLOOKUP(E207, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F207" s="18"/>
       <c r="G207" s="27"/>
       <c r="Q207" s="26"/>
@@ -7517,6 +8190,10 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="23"/>
+      <c r="C208" s="17" t="str">
+        <f aca="false">IF(E208="","",VLOOKUP(E208, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F208" s="18"/>
       <c r="G208" s="27"/>
       <c r="Q208" s="26"/>
@@ -7527,6 +8204,10 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="23"/>
+      <c r="C209" s="17" t="str">
+        <f aca="false">IF(E209="","",VLOOKUP(E209, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F209" s="18"/>
       <c r="G209" s="27"/>
       <c r="Q209" s="26"/>
@@ -7537,6 +8218,10 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="23"/>
+      <c r="C210" s="17" t="str">
+        <f aca="false">IF(E210="","",VLOOKUP(E210, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F210" s="18"/>
       <c r="Q210" s="26"/>
       <c r="R210" s="26" t="str">
@@ -7546,6 +8231,10 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="23"/>
+      <c r="C211" s="17" t="str">
+        <f aca="false">IF(E211="","",VLOOKUP(E211, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F211" s="18"/>
       <c r="Q211" s="26"/>
       <c r="R211" s="26" t="str">
@@ -7555,6 +8244,10 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="23"/>
+      <c r="C212" s="17" t="str">
+        <f aca="false">IF(E212="","",VLOOKUP(E212, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F212" s="18"/>
       <c r="Q212" s="26"/>
       <c r="R212" s="26" t="str">
@@ -7564,6 +8257,10 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="23"/>
+      <c r="C213" s="17" t="str">
+        <f aca="false">IF(E213="","",VLOOKUP(E213, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F213" s="18"/>
       <c r="Q213" s="26"/>
       <c r="R213" s="26" t="str">
@@ -7573,6 +8270,10 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="23"/>
+      <c r="C214" s="17" t="str">
+        <f aca="false">IF(E214="","",VLOOKUP(E214, 'SKU Милкпроджект'!$A$1:$C$50, 3, 0))</f>
+        <v/>
+      </c>
       <c r="F214" s="18"/>
       <c r="Q214" s="26"/>
       <c r="R214" s="26" t="str">
@@ -7763,11 +8464,11 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E3:E100" type="list">
-      <formula1>'SKU Масло'!$A$1:$A$50</formula1>
+      <formula1>'SKU Милкпроджект'!$A$1:$A$50</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B155" type="list">
-      <formula1>'SKU Масло'!$B$1:$B$50</formula1>
+      <formula1>'SKU Милкпроджект'!$B$1:$B$50</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/app/data/static/templates/constructor_milkproject.xlsx
+++ b/app/data/static/templates/constructor_milkproject.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U13" activeCellId="0" sqref="U13"/>
+      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/static/templates/constructor_milkproject.xlsx
+++ b/app/data/static/templates/constructor_milkproject.xlsx
@@ -599,7 +599,7 @@
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
+      <selection pane="topLeft" activeCell="S5" activeCellId="0" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
